--- a/output/fit_clients/fit_round_20.xlsx
+++ b/output/fit_clients/fit_round_20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>8327930862.752718</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.003928318792983894</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
         <v>6</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.6934076416156216</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.74399013035712</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.9205127604858703</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-3.74399013035712</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>5884510540.914364</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.004195582127055142</v>
       </c>
       <c r="G3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
         <v>3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.6934076416156216</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>4.736962517528016</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.9649402810150699</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-4.736962517528016</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>4653983038.486419</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.003749044527270407</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.6934076416156216</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5.748968606418769</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.002303412997497</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-5.748968606418769</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>3911371661.335762</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.003856870190299648</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>6</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.6934076416156216</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.542127903268631</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.8224459253797596</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-3.542127903268631</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>5344997970.290191</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.002091965243465826</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>7</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.6934076416156216</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="L6" t="n">
-        <v>3.26677016462881</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.8512931365568556</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-3.26677016462881</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>8075742633.204179</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.0008506065911494421</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.6934076416156216</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="L7" t="n">
-        <v>5.760783410374021</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.9969599937202638</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-5.760783410374021</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>7709438585.993924</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.002612813777114264</v>
       </c>
       <c r="G8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>3</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.6934076416156216</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502939</v>
-      </c>
-      <c r="L8" t="n">
-        <v>4.671209737739719</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.9660467516900964</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-4.671209737739719</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>5675863049.664495</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.00347606296273816</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.6934076416156216</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="L9" t="n">
-        <v>7.98296006365524</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.973541527326499</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-7.98296006365524</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>3515814586.128746</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.005445488433418567</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>3</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.6934076416156216</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="L10" t="n">
-        <v>4.733525393549701</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.9933080285538799</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-4.733525393549701</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>3452445868.548221</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.00123515856310906</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>7</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.748489524254798</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462226</v>
-      </c>
-      <c r="L11" t="n">
-        <v>3.126300964187569</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.77621076334635</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-3.126300964187569</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>8244237147.078084</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.001323918667396551</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>4</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.6934076416156216</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>4.241376277350676</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.9928757181425657</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-4.241376277350676</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>4559992359.280512</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.00457871177057765</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>5</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.4086322415429841</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="L13" t="n">
-        <v>3.698784075809458</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.731043641392602</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-3.698784075809458</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>8227245804.37323</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.003355379922643696</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>6</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.6934076416156216</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3.412238410341233</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.8417042283705922</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-3.412238410341233</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>5774187150.219669</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.003797884192160472</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>4</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.6934076416156216</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="L15" t="n">
-        <v>4.40971129354094</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.9917991788419525</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-4.40971129354094</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>5812487315.43154</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.003785852779470147</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>4</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.6934076416156216</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>4.218112744850797</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.9179604002709724</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-4.218112744850797</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>6726559302.33079</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.002221237899051927</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.6934076416156216</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="L17" t="n">
-        <v>5.71102940543656</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.9926645490680781</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-5.71102940543656</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>6</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>6293336860.646828</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.001033508369022627</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.6934076416156216</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>8.067099560651062</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.005922721284067</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-8.067099560651062</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>3352806713.30205</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.001604854068961113</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>4</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.6934076416156216</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>4.155218600211612</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.9341110339907482</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-4.155218600211612</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>6</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>5183383462.970475</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.0009163427688531904</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>3</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.6934076416156216</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="L20" t="n">
-        <v>4.699811575300971</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.8470252023234061</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-4.699811575300971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>5429956951.836788</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.005783321251384332</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
-        <v>6</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.9199121333462399</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>3.587201331603991</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.007576100713032</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-3.587201331603991</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>5305191875.117318</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.003496408881095681</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.6934076416156216</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>8.218710198636595</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.9216834604429941</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-8.218710198636595</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>8073249750.770469</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.001984125227888584</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
         <v>4</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.6934076416156216</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>4.084412601294345</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.9191234285944344</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-4.084412601294345</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>5987348352.757957</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.003632631415461073</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.6934076416156216</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="L24" t="n">
-        <v>8.221874062477841</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.071737689376641</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-8.221874062477841</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>5126684466.004963</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.003025173546142409</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>5</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.6934076416156216</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="L25" t="n">
-        <v>3.790767580085434</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.9069528233724535</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-3.790767580085434</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>5494564738.589134</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.0009646030494654026</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>5</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.8835128010129895</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="L26" t="n">
-        <v>3.56207048051811</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.9735669982946927</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-3.56207048051811</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>5684000268.352638</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.003804641484402619</v>
       </c>
       <c r="G27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>3</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.6934076416156216</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="L27" t="n">
-        <v>4.786674430681828</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.9803172309426491</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-4.786674430681828</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>7276982367.629362</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.005677847161451643</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>6</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.6934076416156216</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="L28" t="n">
-        <v>3.448175756897653</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.8617721836225881</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-3.448175756897653</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>7594140600.461061</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.001509285145966435</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>3</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.6934076416156216</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="L29" t="n">
-        <v>4.867848667947297</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.012481747514193</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-4.867848667947297</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>6017525938.914629</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.003636483699236436</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>6</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.9739295493821765</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="L30" t="n">
-        <v>3.291517792994892</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.072127292779017</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-3.291517792994892</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>7973183927.773223</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.002305001679158944</v>
       </c>
       <c r="G31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>5</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.6934076416156216</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>3.803722748501101</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.9673686947989972</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-3.803722748501101</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>5274440434.536025</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.0009212716502668871</v>
       </c>
       <c r="G32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>4</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.6934076416156216</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="L32" t="n">
-        <v>4.436196506207079</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.9499871321133175</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-4.436196506207079</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>5243524847.300473</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.002650127647230988</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
         <v>4</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.6934076416156216</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="L33" t="n">
-        <v>4.24319209527582</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.8427237411405318</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-4.24319209527582</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>6361133746.455783</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.005664409454002927</v>
       </c>
       <c r="G34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.6934076416156216</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.8867139524109913</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>4998847811.045657</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.002429422777223834</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>2</v>
-      </c>
-      <c r="J35" t="n">
-        <v>1</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="L35" t="n">
-        <v>5.785721004117209</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.211763026216317</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-5.785721004117209</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>6687182454.448009</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.002879752769000362</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>5</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.6934076416156216</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="L36" t="n">
-        <v>3.727035060306752</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.00421408551445</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-3.727035060306752</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>5609772262.893318</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.005474427215756348</v>
       </c>
       <c r="G37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
-        <v>4</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.3504567257994409</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="L37" t="n">
-        <v>4.322460400153334</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0.6692625792357774</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-4.322460400153334</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>4211337386.731598</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.004655032462191672</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>4</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.6934076416156216</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>4.067289612639071</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.9249166338751348</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-4.067289612639071</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>5897277847.003279</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.002434476852059865</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
-        <v>2</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.6934076416156216</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="L39" t="n">
-        <v>5.986296808795804</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.9212175385551951</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-5.986296808795804</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>5494520136.72409</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.003860576929133651</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>3</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.6934076416156216</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="L40" t="n">
-        <v>4.952932078677737</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1.026106639624494</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-4.952932078677737</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>6044343340.615472</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.001258369767330337</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>4</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.6934076416156216</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>4.17009766200987</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.9272237813332868</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-4.17009766200987</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>6645770166.421938</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.004207620874709665</v>
       </c>
       <c r="G42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>3</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.6934076416156216</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>4.660405910217091</v>
-      </c>
-      <c r="M42" t="n">
-        <v>1.02193371300652</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-4.660405910217091</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>5595187655.335916</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.004946495677596622</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>4</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.956882380105916</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>4.268757251603035</v>
-      </c>
-      <c r="M43" t="n">
-        <v>1.132720067858668</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-4.268757251603035</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>5116045287.681476</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.001993252861890527</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>5</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.6934076416156216</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="L44" t="n">
-        <v>3.850585756058738</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.9450241167114352</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-3.850585756058738</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>6</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>4018643151.121102</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.001495703830208171</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>3</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.6934076416156216</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318265</v>
-      </c>
-      <c r="L45" t="n">
-        <v>5.045433121516517</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.9954566794394842</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-5.045433121516517</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>8384295885.190688</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.005312819014837181</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>5</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.6934076416156216</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="L46" t="n">
-        <v>3.755552659895843</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.8151419906574453</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-3.755552659895843</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>9194565487.6922</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.002530106074354625</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
         <v>3</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.9146013697958608</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="L47" t="n">
-        <v>4.679779270759112</v>
-      </c>
-      <c r="M47" t="n">
-        <v>1.101807390431946</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-4.679779270759112</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>6483512176.016462</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.003371364705480111</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.6934076416156216</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>8.162938246258284</v>
-      </c>
-      <c r="M48" t="n">
-        <v>1.015435741898739</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-8.162938246258284</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>6</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>5249058214.007511</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.003878974092470511</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>7</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.9085283979747115</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="L49" t="n">
-        <v>3.313291019967664</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.9954524290873213</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-3.313291019967664</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>7752895173.671288</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.003982912587225646</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>3</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.6934076416156216</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>4.835508523386119</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.02193371300652</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-4.835508523386119</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>5382573860.621443</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.004273888270994785</v>
       </c>
       <c r="G51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>5</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.2209985301871359</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="L51" t="n">
-        <v>3.79819978843432</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.349976812922989</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-3.79819978843432</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>7864185777.601292</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.001540575147498581</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>4</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.8010901792283879</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="L52" t="n">
-        <v>4.081738177590578</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.9465520577060789</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-4.081738177590578</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>6621070408.210242</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.002458737387043324</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
         <v>4</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.6934076416156216</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="L53" t="n">
-        <v>4.164160696168826</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.9363955280085192</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-4.164160696168826</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>5478108058.241343</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.004814116199946708</v>
       </c>
       <c r="G54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
-        <v>6</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.6934076416156216</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>3.341392379834594</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.8211459794995191</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-3.341392379834594</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>6512250220.204865</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.00400735513572647</v>
       </c>
       <c r="G55" t="b">
         <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>3</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.6934076416156216</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="L55" t="n">
-        <v>4.753709054511643</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.9593887863101801</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-4.753709054511643</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>5294098107.070721</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.001885555321087283</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
         <v>2</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.6934076416156216</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>5.827508914997597</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.9763883444067558</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-5.827508914997597</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>8282852089.483583</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.003602598020572131</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
-        <v>3</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.6934076416156216</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>4.720113570136297</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.8718849143561861</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-4.720113570136297</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>5695420192.533753</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.002815898162301278</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>7</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.6934076416156216</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="L58" t="n">
-        <v>3.033063792343191</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.7681766927208316</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-3.033063792343191</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>5644586624.076673</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.003723712233807218</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>5</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.6934076416156216</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>3.692756221023104</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.8806580790870479</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-3.692756221023104</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>6</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>4039941207.283994</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.003233690706416072</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>4</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.827499038524371</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="L60" t="n">
-        <v>4.027184921964779</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.9534897104255567</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-4.027184921964779</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>6227524608.017593</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.004621221957536495</v>
       </c>
       <c r="G61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
         <v>4</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.6934076416156216</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="L61" t="n">
-        <v>4.820972120621498</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.9863988587401393</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-4.820972120621498</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>6596935466.540865</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.002978058297966546</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
         <v>4</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.8940013378195043</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="L62" t="n">
-        <v>4.730385047658693</v>
-      </c>
-      <c r="M62" t="n">
-        <v>1.039672680901295</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-4.730385047658693</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>7088250810.252596</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.005509999170273023</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
-        <v>4</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.6934076416156216</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="L63" t="n">
-        <v>4.111322067303318</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0.9466075266995571</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-4.111322067303318</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>4111660141.589646</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.005305853059026039</v>
       </c>
       <c r="G64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>2</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.6934076416156216</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="L64" t="n">
-        <v>5.751257877034636</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.9520133547022278</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-5.751257877034636</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>1</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>6119095410.955327</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.003953128591301555</v>
       </c>
       <c r="G65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>3</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.6934076416156216</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>5.213212346298207</v>
-      </c>
-      <c r="M65" t="n">
-        <v>1.051812411516464</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-5.213212346298207</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>6</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>6058694574.96473</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.00305459125807822</v>
       </c>
       <c r="G66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>5</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.6934076416156216</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702345</v>
-      </c>
-      <c r="L66" t="n">
-        <v>3.766727151038923</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0.8939021412001859</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-3.766727151038923</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>7545212771.320104</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.003585382375702482</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.6934076416156216</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>8.202992302190507</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.9613951943130487</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-8.202992302190507</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>8593260655.327322</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.002224723146673577</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>5</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.5507274049008914</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="L68" t="n">
-        <v>3.597186060955455</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.6091643833959786</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-3.597186060955455</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>6</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>5990277471.428001</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.0009561057967292125</v>
       </c>
       <c r="G69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
-        <v>2</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.6934076416156216</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>5.864674261330485</v>
-      </c>
-      <c r="M69" t="n">
-        <v>1.022353736087355</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-5.864674261330485</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>7268687821.165347</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.003536434267068887</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>3</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.6934076416156216</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>5.57931500498469</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.9160986755404873</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-5.57931500498469</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>4385041237.078845</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.00404674823855559</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.6934076416156216</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>8.06801874281928</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.8874342601079733</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-8.06801874281928</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>6</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>5247078483.067418</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.002061242013679877</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.6934076416156216</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="L72" t="n">
-        <v>8.111821752058228</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.138440042818655</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-8.111821752058228</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>6</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>7429904783.43479</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.001117731684316733</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>2</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.6934076416156216</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>5.773179410530044</v>
-      </c>
-      <c r="M73" t="n">
-        <v>1.008678152266468</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-5.773179410530044</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>6</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>6202822995.103397</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.003646448851749703</v>
       </c>
       <c r="G74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
-        <v>4</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.8820010146029454</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="L74" t="n">
-        <v>4.085264265018163</v>
-      </c>
-      <c r="M74" t="n">
-        <v>1.028732191088738</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-4.085264265018163</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>7063900181.020488</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.003329251054356542</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>7</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.6934076416156216</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>3.264281838017705</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.8021907157142394</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-3.264281838017705</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>6301846831.061349</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.00188608589412307</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>6</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.08720352251803234</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="L76" t="n">
-        <v>3.510598358555874</v>
-      </c>
-      <c r="M76" t="n">
-        <v>-0.4003460551761564</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-3.510598358555874</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>5499000771.527169</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.004617108643987796</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>2</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.6934076416156216</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="L77" t="n">
-        <v>5.831410138764644</v>
-      </c>
-      <c r="M77" t="n">
-        <v>1.027565114393971</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-5.831410138764644</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>6</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>5792582642.834866</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.003788803977389404</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
-        <v>3</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.6934076416156216</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>4.799283988831578</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.967151956507627</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-4.799283988831578</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>6</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>8854667294.051205</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.002638564627888063</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
         <v>4</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.6934076416156216</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>4.072265398734168</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.9511109986255181</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-4.072265398734168</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>7611962815.822459</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.002878920217317055</v>
       </c>
       <c r="G80" t="b">
         <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>5</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.6934076416156216</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="L80" t="n">
-        <v>4.027652643601703</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.9750683336853505</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-4.027652643601703</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>7181712519.949694</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.005118097918936132</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.6934076416156216</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="L81" t="n">
-        <v>8.041088480324992</v>
-      </c>
-      <c r="M81" t="n">
-        <v>1.03523174985642</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-8.041088480324992</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>6</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>8658462042.696154</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.005705679853403462</v>
       </c>
       <c r="G82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>2</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.6934076416156216</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>5.870909588900459</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0.9752936063400709</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-5.870909588900459</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>8271369047.546254</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.002720020426304402</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
-        <v>6</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.6934076416156216</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>3.351486997760781</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.8250396725157267</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-3.351486997760781</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>6399617306.916009</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.004339849366880029</v>
       </c>
       <c r="G84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
-        <v>4</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.6934076416156216</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="L84" t="n">
-        <v>4.122364870850764</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.9863988587401393</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-4.122364870850764</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>4980083591.477404</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.003552296953270208</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>5</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.6934076416156216</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>3.671029212827066</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.9221382600539583</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-3.671029212827066</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>8214823648.357149</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.002092924997119478</v>
       </c>
       <c r="G86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>4</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.6934076416156216</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="L86" t="n">
-        <v>4.412738257478755</v>
-      </c>
-      <c r="M86" t="n">
-        <v>1.013112640165178</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-4.412738257478755</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>4782549899.240849</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.001316246111891402</v>
       </c>
       <c r="G87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>6</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.6934076416156216</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764211</v>
-      </c>
-      <c r="L87" t="n">
-        <v>3.406453171290404</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.974627932825366</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-3.406453171290404</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>1</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>6862965872.894198</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.003727540649923441</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
-        <v>4</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.6934076416156216</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="L88" t="n">
-        <v>4.082504169294384</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.8602879931973449</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-4.082504169294384</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>7960082138.211757</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.005396947670193074</v>
       </c>
       <c r="G89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>5</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.6934076416156216</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>3.835955168044511</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.9325064050103037</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-3.835955168044511</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>6</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>4927793436.352401</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.003150428819208478</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
-        <v>3</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.6934076416156216</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>4.692068496260025</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.9824942922654318</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-4.692068496260025</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>5285697169.976419</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.003518355606648502</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>2</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.6883906674653718</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="L91" t="n">
-        <v>5.659074372598746</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.857742388929452</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-5.659074372598746</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>4064707499.27862</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.00310601326573734</v>
       </c>
       <c r="G92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>4</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.6934076416156216</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>4.222715417561077</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1.053434317913883</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-4.222715417561077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>6878635555.047688</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.001768947483735513</v>
       </c>
       <c r="G93" t="b">
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>6</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.6934076416156216</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="L93" t="n">
-        <v>3.438651468373034</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.8934217313955358</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-3.438651468373034</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>6665900227.819255</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.001204243602873488</v>
       </c>
       <c r="G94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.6934076416156216</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="L94" t="n">
-        <v>8.167662914698331</v>
-      </c>
-      <c r="M94" t="n">
-        <v>1.08165959529134</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-8.167662914698331</v>
+        <v>7</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>6711199613.194647</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.002061996518222044</v>
       </c>
       <c r="G95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>4</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.6934076416156216</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>4.083116524144597</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.922603716970521</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-4.083116524144597</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>6</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>7340500541.915062</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.002249541339771149</v>
       </c>
       <c r="G96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
-        <v>7</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="L96" t="n">
-        <v>3.232012836310656</v>
-      </c>
-      <c r="M96" t="n">
-        <v>-0.5916079783099616</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-3.232012836310656</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>1</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>5980373140.371511</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.00593039726870145</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>3</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.6934076416156216</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="L97" t="n">
-        <v>4.903748072609186</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.9311349688198332</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-4.903748072609186</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>7509364917.691741</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.00457248474610557</v>
       </c>
       <c r="G98" t="b">
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>5</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.8512960138506703</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>3.547122150268688</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.9659235367031724</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-3.547122150268688</v>
+        <v>8</v>
       </c>
     </row>
     <row r="99">
@@ -4972,40 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>3816436013.279849</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.0047861363622823</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>4</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.6934076416156216</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="L99" t="n">
-        <v>4.197740798437886</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0.9329666892755177</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-4.197740798437886</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>4937213602.020175</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.002453930253757801</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>5</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.6934076416156216</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>3.662237162870686</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.8019293358379771</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-3.662237162870686</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>6404592315.246201</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001657461631269345</v>
       </c>
       <c r="G101" t="b">
         <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>4</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.6934076416156216</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="L101" t="n">
-        <v>4.433799125196027</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.9156299118172992</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-4.433799125196027</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_20.xlsx
+++ b/output/fit_clients/fit_round_20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -480,22 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>8327930862.752718</v>
+        <v>2408912855.410736</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003928318792983894</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
+        <v>0.09436930864639401</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.02943710724758029</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1204456478.038807</v>
       </c>
     </row>
     <row r="3">
@@ -511,19 +527,25 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>5884510540.914364</v>
+        <v>2276072678.091458</v>
       </c>
       <c r="F3" t="n">
-        <v>0.004195582127055142</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
+        <v>0.1198745033343395</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.03959723234280325</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1138036421.553972</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +558,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4653983038.486419</v>
+        <v>4000753759.804343</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003749044527270407</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
+        <v>0.1036325467603178</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.03343457303067716</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2000376893.87044</v>
       </c>
     </row>
     <row r="5">
@@ -567,19 +595,25 @@
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3911371661.335762</v>
+        <v>4125804969.357791</v>
       </c>
       <c r="F5" t="n">
-        <v>0.003856870190299648</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>0.08762494745645386</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.03178254814881035</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>8</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2062902479.850314</v>
       </c>
     </row>
     <row r="6">
@@ -595,19 +629,25 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>5344997970.290191</v>
+        <v>2826219409.599597</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002091965243465826</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
+        <v>0.1288312068580283</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.05060643974897772</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
         <v>4</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1413109644.734275</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +660,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>8075742633.204179</v>
+        <v>2487239164.992099</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0008506065911494421</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
+        <v>0.06363502020429077</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.03058577031277306</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1243619596.490028</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>497</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2735786178.939544</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.1499068938614958</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.02701361387500887</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>6</v>
       </c>
-      <c r="D8" t="n">
-        <v>513</v>
-      </c>
-      <c r="E8" t="n">
-        <v>7709438585.993924</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.002612813777114264</v>
-      </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
+      <c r="J8" t="n">
+        <v>1367893119.693482</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +728,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>5675863049.664495</v>
+        <v>1604015584.302559</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00347606296273816</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
+        <v>0.1654683923176509</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.02526643575970112</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>802007873.4429621</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +762,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3515814586.128746</v>
+        <v>3894975852.759208</v>
       </c>
       <c r="F10" t="n">
-        <v>0.005445488433418567</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1381887270857382</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.03502959108804685</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>9</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1947487939.907086</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +796,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3452445868.548221</v>
+        <v>3628398538.718805</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00123515856310906</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.1797842847413351</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.04287498535628929</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>8</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1814199255.861689</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +830,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>8244237147.078084</v>
+        <v>3021223872.091257</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001323918667396551</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>6</v>
+        <v>0.1931177438724927</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.04502229637654104</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1510611955.749983</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +864,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4559992359.280512</v>
+        <v>4844429279.29011</v>
       </c>
       <c r="F13" t="n">
-        <v>0.00457871177057765</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
+        <v>0.09165376501580337</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.02481965886189225</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>7</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2422214651.389409</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +898,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>8227245804.37323</v>
+        <v>3084401514.35021</v>
       </c>
       <c r="F14" t="n">
-        <v>0.003355379922643696</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>5</v>
+        <v>0.1788151159609404</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.03132858752312301</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>6</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1542200785.246321</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +932,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>5774187150.219669</v>
+        <v>1408342505.442778</v>
       </c>
       <c r="F15" t="n">
-        <v>0.003797884192160472</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>7</v>
+        <v>0.07079677443515536</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.04851954207260246</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>704171317.1824688</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +966,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>5812487315.43154</v>
+        <v>2485444709.092995</v>
       </c>
       <c r="F16" t="n">
-        <v>0.003785852779470147</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>7</v>
+        <v>0.08528159369075025</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.04545216945610145</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1242722386.402567</v>
       </c>
     </row>
     <row r="17">
@@ -903,19 +1003,25 @@
         <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>6726559302.33079</v>
+        <v>4675664924.480011</v>
       </c>
       <c r="F17" t="n">
-        <v>0.002221237899051927</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>4</v>
+        <v>0.1509853505471769</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.04049833847104726</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>6</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2337832463.166666</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1034,28 @@
         </is>
       </c>
       <c r="C18" t="n">
+        <v>4</v>
+      </c>
+      <c r="D18" t="n">
+        <v>504</v>
+      </c>
+      <c r="E18" t="n">
+        <v>3002035046.044279</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.1119384703970331</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.02310225243853666</v>
+      </c>
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
         <v>6</v>
       </c>
-      <c r="D18" t="n">
-        <v>536</v>
-      </c>
-      <c r="E18" t="n">
-        <v>6293336860.646828</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.001033508369022627</v>
-      </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" t="n">
-        <v>5</v>
+      <c r="J18" t="n">
+        <v>1501017552.87322</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +1068,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>3352806713.30205</v>
+        <v>1277017726.115889</v>
       </c>
       <c r="F19" t="n">
-        <v>0.001604854068961113</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1204552614061574</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.02177526084178069</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>638508959.462872</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +1102,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>5183383462.970475</v>
+        <v>2707494449.285366</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0009163427688531904</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
+        <v>0.1363587664084318</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.0247977951299709</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1353747175.352026</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1136,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>5429956951.836788</v>
+        <v>2134848272.599445</v>
       </c>
       <c r="F21" t="n">
-        <v>0.005783321251384332</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>4</v>
+        <v>0.09544904753576965</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.04390493127772339</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1067424159.100716</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1170,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>5305191875.117318</v>
+        <v>2834763735.871579</v>
       </c>
       <c r="F22" t="n">
-        <v>0.003496408881095681</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
+        <v>0.1441363377556206</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.04021174540663781</v>
+      </c>
+      <c r="H22" t="b">
         <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>5</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1417381939.101751</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1204,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>8073249750.770469</v>
+        <v>1325892225.960203</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001984125227888584</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>4</v>
+        <v>0.1484526448476536</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.046134122877255</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>662946127.9556975</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1238,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>5987348352.757957</v>
+        <v>3319467277.386042</v>
       </c>
       <c r="F24" t="n">
-        <v>0.003632631415461073</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>5</v>
+        <v>0.1350765722114058</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.02608491853362906</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>6</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1659733652.205355</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1272,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>5126684466.004963</v>
+        <v>1277852542.000824</v>
       </c>
       <c r="F25" t="n">
-        <v>0.003025173546142409</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>4</v>
+        <v>0.1197338822446355</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.0291935245170762</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>638926270.711346</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1306,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>5494564738.589134</v>
+        <v>974777634.2099826</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0009646030494654026</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.07654434267552759</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.03009441791396569</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>487388782.6910492</v>
       </c>
     </row>
     <row r="27">
@@ -1183,19 +1343,25 @@
         <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>5684000268.352638</v>
+        <v>4010077683.031773</v>
       </c>
       <c r="F27" t="n">
-        <v>0.003804641484402619</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>6</v>
+        <v>0.1286918114822168</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.0242766161482388</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>4</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2005038850.89454</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>7276982367.629362</v>
+        <v>3831702873.39811</v>
       </c>
       <c r="F28" t="n">
-        <v>0.005677847161451643</v>
-      </c>
-      <c r="G28" t="b">
+        <v>0.1196628294774889</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.04960600610950767</v>
+      </c>
+      <c r="H28" t="b">
         <v>1</v>
       </c>
-      <c r="H28" t="n">
-        <v>5</v>
+      <c r="I28" t="n">
+        <v>6</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1915851519.788902</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1408,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>7594140600.461061</v>
+        <v>4354118218.895118</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001509285145966435</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>5</v>
+        <v>0.1050960557644381</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.03391252357482064</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>9</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2177059101.538475</v>
       </c>
     </row>
     <row r="30">
@@ -1267,19 +1445,25 @@
         <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>6017525938.914629</v>
+        <v>1493756373.181547</v>
       </c>
       <c r="F30" t="n">
-        <v>0.003636483699236436</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>7</v>
+        <v>0.08882050566460804</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.03385824838939626</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>746878166.1208923</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1476,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>7973183927.773223</v>
+        <v>1423830922.030621</v>
       </c>
       <c r="F31" t="n">
-        <v>0.002305001679158944</v>
-      </c>
-      <c r="G31" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" t="n">
-        <v>3</v>
+        <v>0.09180850417675339</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.03563338158917022</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>711915359.5484281</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1510,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>5274440434.536025</v>
+        <v>1800615829.887764</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0009212716502668871</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.07794138691891826</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.02375412563642945</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>900308045.3181711</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1544,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>5243524847.300473</v>
+        <v>2522918195.454803</v>
       </c>
       <c r="F33" t="n">
-        <v>0.002650127647230988</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>4</v>
+        <v>0.1669828148965511</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.03949228507017847</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>6</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1261459133.721268</v>
       </c>
     </row>
     <row r="34">
@@ -1379,19 +1581,25 @@
         <v>2</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>6361133746.455783</v>
+        <v>963630973.2395877</v>
       </c>
       <c r="F34" t="n">
-        <v>0.005664409454002927</v>
-      </c>
-      <c r="G34" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" t="n">
-        <v>5</v>
+        <v>0.1189499177493904</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.02214143134137907</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>481815530.2842343</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1612,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>4998847811.045657</v>
+        <v>1044550291.17851</v>
       </c>
       <c r="F35" t="n">
-        <v>0.002429422777223834</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>5</v>
+        <v>0.113025231453631</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.04295001955151822</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>522275154.1153236</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1646,28 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>6687182454.448009</v>
+        <v>2957322835.219273</v>
       </c>
       <c r="F36" t="n">
-        <v>0.002879752769000362</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>6</v>
+        <v>0.1344974995587559</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.0245553839520519</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>5</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1478661402.682544</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1680,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>5609772262.893318</v>
+        <v>2002885506.778341</v>
       </c>
       <c r="F37" t="n">
-        <v>0.005474427215756348</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>5</v>
+        <v>0.1039839326533169</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.03925952830861469</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>4</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1001442780.808276</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>4211337386.731598</v>
+        <v>1475887798.837681</v>
       </c>
       <c r="F38" t="n">
-        <v>0.004655032462191672</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.09027981717002501</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.02450703767711636</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>737943951.7623246</v>
       </c>
     </row>
     <row r="39">
@@ -1516,22 +1748,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>5897277847.003279</v>
+        <v>1974497378.296809</v>
       </c>
       <c r="F39" t="n">
-        <v>0.002434476852059865</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
+        <v>0.1335350715529171</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.03052633109330747</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>987248687.3050718</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1782,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>5494520136.72409</v>
+        <v>1527426695.296407</v>
       </c>
       <c r="F40" t="n">
-        <v>0.003860576929133651</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>5</v>
+        <v>0.1069460249153668</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.05811624477820542</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>763713306.7428505</v>
       </c>
     </row>
     <row r="41">
@@ -1575,19 +1819,25 @@
         <v>3</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>6044343340.615472</v>
+        <v>2487900420.574032</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001258369767330337</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
+        <v>0.1255097951304242</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.03208177417078158</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>6</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1243950236.499204</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1850,28 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>6645770166.421938</v>
+        <v>3868653481.317566</v>
       </c>
       <c r="F42" t="n">
-        <v>0.004207620874709665</v>
-      </c>
-      <c r="G42" t="b">
+        <v>0.08207268962733219</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.0388580844191955</v>
+      </c>
+      <c r="H42" t="b">
         <v>1</v>
       </c>
-      <c r="H42" t="n">
-        <v>4</v>
+      <c r="I42" t="n">
+        <v>6</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1934326760.661906</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1884,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>5595187655.335916</v>
+        <v>2472060909.222708</v>
       </c>
       <c r="F43" t="n">
-        <v>0.004946495677596622</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>5</v>
+        <v>0.1453551971229765</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.01836804237099694</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>8</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1236030505.821934</v>
       </c>
     </row>
     <row r="44">
@@ -1656,22 +1918,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>5116045287.681476</v>
+        <v>2281126217.007434</v>
       </c>
       <c r="F44" t="n">
-        <v>0.001993252861890527</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>5</v>
+        <v>0.09549523078646564</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.02561949326275649</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1140563270.629875</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1952,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>4018643151.121102</v>
+        <v>2099351935.907696</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001495703830208171</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>2</v>
+        <v>0.1946038039098441</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.03759741564536542</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1049675968.574309</v>
       </c>
     </row>
     <row r="46">
@@ -1715,19 +1989,25 @@
         <v>5</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>8384295885.190688</v>
+        <v>4975185120.188454</v>
       </c>
       <c r="F46" t="n">
-        <v>0.005312819014837181</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>3</v>
+        <v>0.176974191810736</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.05294073999807701</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>7</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2487592585.207722</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2020,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>9194565487.6922</v>
+        <v>4837166597.348582</v>
       </c>
       <c r="F47" t="n">
-        <v>0.002530106074354625</v>
-      </c>
-      <c r="G47" t="b">
-        <v>1</v>
-      </c>
-      <c r="H47" t="n">
-        <v>3</v>
+        <v>0.1962562603824619</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.04374229263768965</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>5</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2418583345.038241</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2054,28 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>6483512176.016462</v>
+        <v>3598053635.866973</v>
       </c>
       <c r="F48" t="n">
-        <v>0.003371364705480111</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>4</v>
+        <v>0.08263310604092781</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.03381877529230806</v>
+      </c>
+      <c r="H48" t="b">
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>6</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1799026875.410813</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +2088,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>5249058214.007511</v>
+        <v>1596337161.296968</v>
       </c>
       <c r="F49" t="n">
-        <v>0.003878974092470511</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
+        <v>0.1894639160307936</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.0333901748541413</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>798168597.4234146</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +2122,28 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>7752895173.671288</v>
+        <v>3557009060.378284</v>
       </c>
       <c r="F50" t="n">
-        <v>0.003982912587225646</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>6</v>
+        <v>0.1114285779410182</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.04658400300246327</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>7</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1778504550.088728</v>
       </c>
     </row>
     <row r="51">
@@ -1855,19 +2159,25 @@
         <v>4</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>5382573860.621443</v>
+        <v>1198359728.64166</v>
       </c>
       <c r="F51" t="n">
-        <v>0.004273888270994785</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.121418503291621</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.04603173856649115</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>599179915.8444816</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +2190,28 @@
         </is>
       </c>
       <c r="C52" t="n">
+        <v>4</v>
+      </c>
+      <c r="D52" t="n">
+        <v>565</v>
+      </c>
+      <c r="E52" t="n">
+        <v>3729515922.202852</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.09940934129252151</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.06111618792041634</v>
+      </c>
+      <c r="H52" t="b">
         <v>1</v>
       </c>
-      <c r="D52" t="n">
-        <v>497</v>
-      </c>
-      <c r="E52" t="n">
-        <v>7864185777.601292</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0.001540575147498581</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>5</v>
+      <c r="I52" t="n">
+        <v>8</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1864758033.254091</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2224,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>6621070408.210242</v>
+        <v>2712467291.027657</v>
       </c>
       <c r="F53" t="n">
-        <v>0.002458737387043324</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>4</v>
+        <v>0.1974772860698647</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.0321436038223608</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>5</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1356233697.536778</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2258,28 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>5478108058.241343</v>
+        <v>3967804649.146679</v>
       </c>
       <c r="F54" t="n">
-        <v>0.004814116199946708</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>3</v>
+        <v>0.1597536523630494</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.03334806944396115</v>
+      </c>
+      <c r="H54" t="b">
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>6</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1983902385.85173</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>6512250220.204865</v>
+        <v>4026941609.288346</v>
       </c>
       <c r="F55" t="n">
-        <v>0.00400735513572647</v>
-      </c>
-      <c r="G55" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" t="n">
-        <v>6</v>
+        <v>0.1851358920488946</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.03261461003477439</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>5</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2013470780.486674</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +2326,28 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>5294098107.070721</v>
+        <v>1794420067.571878</v>
       </c>
       <c r="F56" t="n">
-        <v>0.001885555321087283</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>2</v>
+        <v>0.1387413692891858</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.0521008212480928</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>897210032.2644035</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2360,28 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>8282852089.483583</v>
+        <v>3847524465.921128</v>
       </c>
       <c r="F57" t="n">
-        <v>0.003602598020572131</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>5</v>
+        <v>0.1829114412846286</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.01782521936288826</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>6</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1923762308.245756</v>
       </c>
     </row>
     <row r="58">
@@ -2051,19 +2397,25 @@
         <v>5</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>5695420192.533753</v>
+        <v>1549842991.112651</v>
       </c>
       <c r="F58" t="n">
-        <v>0.002815898162301278</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>3</v>
+        <v>0.1247299007350359</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.03922966403695061</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>774921521.8842506</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2428,28 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5644586624.076673</v>
+        <v>4640525686.053825</v>
       </c>
       <c r="F59" t="n">
-        <v>0.003723712233807218</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>2</v>
+        <v>0.08220171303506711</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.04307439928613691</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>5</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2320262787.823973</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2462,28 @@
         </is>
       </c>
       <c r="C60" t="n">
+        <v>3</v>
+      </c>
+      <c r="D60" t="n">
+        <v>490</v>
+      </c>
+      <c r="E60" t="n">
+        <v>3279411454.273358</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.203800220563489</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.0285834561519682</v>
+      </c>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>6</v>
       </c>
-      <c r="D60" t="n">
-        <v>424</v>
-      </c>
-      <c r="E60" t="n">
-        <v>4039941207.283994</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0.003233690706416072</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
+      <c r="J60" t="n">
+        <v>1639705826.464084</v>
       </c>
     </row>
     <row r="61">
@@ -2135,19 +2499,25 @@
         <v>5</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>6227524608.017593</v>
+        <v>3401920739.06659</v>
       </c>
       <c r="F61" t="n">
-        <v>0.004621221957536495</v>
-      </c>
-      <c r="G61" t="b">
+        <v>0.1463675254244131</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.02365536843530135</v>
+      </c>
+      <c r="H61" t="b">
         <v>1</v>
       </c>
-      <c r="H61" t="n">
-        <v>4</v>
+      <c r="I61" t="n">
+        <v>6</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1700960311.739528</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2530,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>6596935466.540865</v>
+        <v>2083674148.396678</v>
       </c>
       <c r="F62" t="n">
-        <v>0.002978058297966546</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>4</v>
+        <v>0.1508720245685062</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.04550171222533977</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1041837144.547484</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2564,28 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>7088250810.252596</v>
+        <v>4539684680.432397</v>
       </c>
       <c r="F63" t="n">
-        <v>0.005509999170273023</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>6</v>
+        <v>0.09837874749951943</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.04182271241786806</v>
+      </c>
+      <c r="H63" t="b">
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>5</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2269842378.263318</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2598,28 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4111660141.589646</v>
+        <v>5436790102.440948</v>
       </c>
       <c r="F64" t="n">
-        <v>0.005305853059026039</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.1246469764876829</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.02640462259061171</v>
+      </c>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>6</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2718395187.915845</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2632,28 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>6119095410.955327</v>
+        <v>5521955556.530846</v>
       </c>
       <c r="F65" t="n">
-        <v>0.003953128591301555</v>
-      </c>
-      <c r="G65" t="b">
-        <v>1</v>
-      </c>
-      <c r="H65" t="n">
-        <v>4</v>
+        <v>0.1340695062070124</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.02082316519517604</v>
+      </c>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>7</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2760977705.712522</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2666,28 @@
         </is>
       </c>
       <c r="C66" t="n">
+        <v>4</v>
+      </c>
+      <c r="D66" t="n">
+        <v>475</v>
+      </c>
+      <c r="E66" t="n">
+        <v>5567114664.487904</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.1031982714183085</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.04795067823718978</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>6</v>
       </c>
-      <c r="D66" t="n">
-        <v>472</v>
-      </c>
-      <c r="E66" t="n">
-        <v>6058694574.96473</v>
-      </c>
-      <c r="F66" t="n">
-        <v>0.00305459125807822</v>
-      </c>
-      <c r="G66" t="b">
-        <v>1</v>
-      </c>
-      <c r="H66" t="n">
-        <v>3</v>
+      <c r="J66" t="n">
+        <v>2783557389.529472</v>
       </c>
     </row>
     <row r="67">
@@ -2303,19 +2703,25 @@
         <v>4</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>7545212771.320104</v>
+        <v>3372500056.689157</v>
       </c>
       <c r="F67" t="n">
-        <v>0.003585382375702482</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>3</v>
+        <v>0.07891956735746743</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.03909647390735062</v>
+      </c>
+      <c r="H67" t="b">
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>6</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1686250014.866848</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2734,28 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>8593260655.327322</v>
+        <v>5173434397.99816</v>
       </c>
       <c r="F68" t="n">
-        <v>0.002224723146673577</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>4</v>
+        <v>0.1240185963084533</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.03934563376161857</v>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>6</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2586717265.584383</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2768,28 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>5990277471.428001</v>
+        <v>2457832899.180089</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0009561057967292125</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>3</v>
+        <v>0.1547660022354688</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.04596963072483994</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1228916513.497908</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2802,28 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>7268687821.165347</v>
+        <v>2486505436.252913</v>
       </c>
       <c r="F70" t="n">
-        <v>0.003536434267068887</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>5</v>
+        <v>0.07458078879872956</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.04808064824290741</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>5</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1243252661.453329</v>
       </c>
     </row>
     <row r="71">
@@ -2415,19 +2839,25 @@
         <v>3</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4385041237.078845</v>
+        <v>4247407456.763525</v>
       </c>
       <c r="F71" t="n">
-        <v>0.00404674823855559</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.152201399478453</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.03128744217492439</v>
+      </c>
+      <c r="H71" t="b">
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>7</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2123703777.659008</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2870,28 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>5247078483.067418</v>
+        <v>1766866625.624235</v>
       </c>
       <c r="F72" t="n">
-        <v>0.002061242013679877</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>4</v>
+        <v>0.06652751604149403</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.03811474719238699</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>883433296.4864917</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2904,28 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>7429904783.43479</v>
+        <v>3493915369.147325</v>
       </c>
       <c r="F73" t="n">
-        <v>0.001117731684316733</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>5</v>
+        <v>0.09062410445881751</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.03922688757785429</v>
+      </c>
+      <c r="H73" t="b">
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>7</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1746957635.10509</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2938,28 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>6202822995.103397</v>
+        <v>3841950568.412757</v>
       </c>
       <c r="F74" t="n">
-        <v>0.003646448851749703</v>
-      </c>
-      <c r="G74" t="b">
-        <v>1</v>
-      </c>
-      <c r="H74" t="n">
-        <v>5</v>
+        <v>0.1720845819737184</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.03126077075041945</v>
+      </c>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>7</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1920975276.567277</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2972,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>7063900181.020488</v>
+        <v>1780171510.267955</v>
       </c>
       <c r="F75" t="n">
-        <v>0.003329251054356542</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>4</v>
+        <v>0.1554238415716091</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.0313737778587923</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>890085739.6826928</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +3006,28 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>6301846831.061349</v>
+        <v>3272157402.100966</v>
       </c>
       <c r="F76" t="n">
-        <v>0.00188608589412307</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
+        <v>0.1096961340248093</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.02565853354320007</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>4</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1636078654.938533</v>
       </c>
     </row>
     <row r="77">
@@ -2583,19 +3043,25 @@
         <v>4</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>5499000771.527169</v>
+        <v>1482939874.046335</v>
       </c>
       <c r="F77" t="n">
-        <v>0.004617108643987796</v>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>7</v>
+        <v>0.1196795539771938</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.03011765548565281</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>741469921.9168243</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +3074,28 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>5792582642.834866</v>
+        <v>4318049328.329774</v>
       </c>
       <c r="F78" t="n">
-        <v>0.003788803977389404</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>4</v>
+        <v>0.1331736542934588</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.03765592030714594</v>
+      </c>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>7</v>
+      </c>
+      <c r="J78" t="n">
+        <v>2159024606.883486</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +3108,28 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>8854667294.051205</v>
+        <v>1183102180.030143</v>
       </c>
       <c r="F79" t="n">
-        <v>0.002638564627888063</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>4</v>
+        <v>0.1330344042647096</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.03964162213623295</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>591551068.6188565</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +3142,28 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>7611962815.822459</v>
+        <v>3868124103.243407</v>
       </c>
       <c r="F80" t="n">
-        <v>0.002878920217317055</v>
-      </c>
-      <c r="G80" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" t="n">
-        <v>7</v>
+        <v>0.07936886821518485</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.02820470743659465</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>4</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1934062044.289051</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3176,28 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>7181712519.949694</v>
+        <v>4445955590.606887</v>
       </c>
       <c r="F81" t="n">
-        <v>0.005118097918936132</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
+        <v>0.0921764780439298</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.02158674001959284</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>4</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2222977774.833843</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3210,28 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
-        <v>423</v>
+        <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>8658462042.696154</v>
+        <v>3898987502.413102</v>
       </c>
       <c r="F82" t="n">
-        <v>0.005705679853403462</v>
-      </c>
-      <c r="G82" t="b">
-        <v>1</v>
-      </c>
-      <c r="H82" t="n">
-        <v>3</v>
+        <v>0.1343364280350614</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.02903407007729622</v>
+      </c>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>7</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1949493796.268764</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +3244,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>8271369047.546254</v>
+        <v>1746553584.302922</v>
       </c>
       <c r="F83" t="n">
-        <v>0.002720020426304402</v>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83" t="n">
-        <v>5</v>
+        <v>0.1569543474548542</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.03001198059270707</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>873276745.592176</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +3278,28 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>6399617306.916009</v>
+        <v>1941444283.574176</v>
       </c>
       <c r="F84" t="n">
-        <v>0.004339849366880029</v>
-      </c>
-      <c r="G84" t="b">
-        <v>1</v>
-      </c>
-      <c r="H84" t="n">
-        <v>5</v>
+        <v>0.1066618572359055</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.03213528365573189</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>970722155.1311724</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +3312,28 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>4980083591.477404</v>
+        <v>3140657088.763218</v>
       </c>
       <c r="F85" t="n">
-        <v>0.003552296953270208</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
+        <v>0.1837935831880698</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.03898446012436286</v>
+      </c>
+      <c r="H85" t="b">
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>7</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1570328619.809247</v>
       </c>
     </row>
     <row r="86">
@@ -2835,19 +3349,25 @@
         <v>4</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>8214823648.357149</v>
+        <v>2033300567.795722</v>
       </c>
       <c r="F86" t="n">
-        <v>0.002092924997119478</v>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86" t="n">
-        <v>6</v>
+        <v>0.1679063114184478</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.01834875278971904</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1016650315.927743</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +3380,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>4782549899.240849</v>
+        <v>1058463894.69349</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001316246111891402</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.1656275717762612</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.04380023226370446</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>529231966.3753903</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +3414,28 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>6862965872.894198</v>
+        <v>2582240470.10793</v>
       </c>
       <c r="F88" t="n">
-        <v>0.003727540649923441</v>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" t="n">
-        <v>5</v>
+        <v>0.1497979708801162</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.03096008678303716</v>
+      </c>
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>8</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1291120223.927074</v>
       </c>
     </row>
     <row r="89">
@@ -2919,19 +3451,25 @@
         <v>5</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>7960082138.211757</v>
+        <v>2527435795.081538</v>
       </c>
       <c r="F89" t="n">
-        <v>0.005396947670193074</v>
-      </c>
-      <c r="G89" t="b">
-        <v>1</v>
-      </c>
-      <c r="H89" t="n">
-        <v>4</v>
+        <v>0.1533791519133712</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.02753540227608202</v>
+      </c>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>7</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1263717970.063104</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +3482,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>4927793436.352401</v>
+        <v>2076312504.485903</v>
       </c>
       <c r="F90" t="n">
-        <v>0.003150428819208478</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>2</v>
+        <v>0.1310375242227741</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.04746124048707672</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1038156336.187229</v>
       </c>
     </row>
     <row r="91">
@@ -2975,19 +3519,25 @@
         <v>4</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>5285697169.976419</v>
+        <v>1638823387.705223</v>
       </c>
       <c r="F91" t="n">
-        <v>0.003518355606648502</v>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91" t="n">
-        <v>6</v>
+        <v>0.157459213237937</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.05764387743096456</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>819411714.0023459</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3550,28 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>4064707499.27862</v>
+        <v>2758910069.314278</v>
       </c>
       <c r="F92" t="n">
-        <v>0.00310601326573734</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.06912233496844906</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.03497838875088205</v>
+      </c>
+      <c r="H92" t="b">
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>5</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1379455037.875623</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3584,28 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>6878635555.047688</v>
+        <v>3407314492.979274</v>
       </c>
       <c r="F93" t="n">
-        <v>0.001768947483735513</v>
-      </c>
-      <c r="G93" t="b">
-        <v>0</v>
-      </c>
-      <c r="H93" t="n">
-        <v>7</v>
+        <v>0.12020360816907</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.0339457466198272</v>
+      </c>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>6</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1703657285.18507</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3618,28 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>6665900227.819255</v>
+        <v>1528259694.310758</v>
       </c>
       <c r="F94" t="n">
-        <v>0.001204243602873488</v>
-      </c>
-      <c r="G94" t="b">
-        <v>1</v>
-      </c>
-      <c r="H94" t="n">
-        <v>7</v>
+        <v>0.1318531766650797</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.0292510647542904</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>764129783.7770867</v>
       </c>
     </row>
     <row r="95">
@@ -3087,19 +3655,25 @@
         <v>5</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>6711199613.194647</v>
+        <v>2869615810.507341</v>
       </c>
       <c r="F95" t="n">
-        <v>0.002061996518222044</v>
-      </c>
-      <c r="G95" t="b">
+        <v>0.131740318865319</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.03334111067082002</v>
+      </c>
+      <c r="H95" t="b">
         <v>1</v>
       </c>
-      <c r="H95" t="n">
-        <v>5</v>
+      <c r="I95" t="n">
+        <v>4</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1434807914.190842</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3686,28 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>7340500541.915062</v>
+        <v>1789329616.876482</v>
       </c>
       <c r="F96" t="n">
-        <v>0.002249541339771149</v>
-      </c>
-      <c r="G96" t="b">
-        <v>1</v>
-      </c>
-      <c r="H96" t="n">
-        <v>5</v>
+        <v>0.1379299771511712</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.04086762198261821</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>894664817.5851123</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3720,28 @@
         </is>
       </c>
       <c r="C97" t="n">
+        <v>5</v>
+      </c>
+      <c r="D97" t="n">
+        <v>498</v>
+      </c>
+      <c r="E97" t="n">
+        <v>4488490625.117864</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.1662400986677451</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.02254901675613634</v>
+      </c>
+      <c r="H97" t="b">
         <v>1</v>
       </c>
-      <c r="D97" t="n">
-        <v>514</v>
-      </c>
-      <c r="E97" t="n">
-        <v>5980373140.371511</v>
-      </c>
-      <c r="F97" t="n">
-        <v>0.00593039726870145</v>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>5</v>
+      <c r="I97" t="n">
+        <v>6</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2244245407.951736</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3754,28 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>7509364917.691741</v>
+        <v>2497849953.768086</v>
       </c>
       <c r="F98" t="n">
-        <v>0.00457248474610557</v>
-      </c>
-      <c r="G98" t="b">
-        <v>0</v>
-      </c>
-      <c r="H98" t="n">
-        <v>8</v>
+        <v>0.1211857280804583</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.03124504789886336</v>
+      </c>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>5</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1248924927.202854</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3788,28 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3816436013.279849</v>
+        <v>2954804364.209215</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0047861363622823</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.1174180906124416</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.02221508775321522</v>
+      </c>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>6</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1477402164.525393</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3822,28 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4937213602.020175</v>
+        <v>3223881267.205876</v>
       </c>
       <c r="F100" t="n">
-        <v>0.002453930253757801</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
+        <v>0.1108246330917998</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.02371965155678871</v>
+      </c>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>6</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1611940642.075353</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3856,28 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>6404592315.246201</v>
+        <v>3313938676.529639</v>
       </c>
       <c r="F101" t="n">
-        <v>0.001657461631269345</v>
-      </c>
-      <c r="G101" t="b">
-        <v>1</v>
-      </c>
-      <c r="H101" t="n">
-        <v>6</v>
+        <v>0.1958306850816964</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.04486411491707183</v>
+      </c>
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>9</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1656969468.572832</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_20.xlsx
+++ b/output/fit_clients/fit_round_20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2408912855.410736</v>
+        <v>1806998910.272413</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09436930864639401</v>
+        <v>0.08798416493150746</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02943710724758029</v>
+        <v>0.03853377427960947</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1204456478.038807</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2276072678.091458</v>
+        <v>1779750235.432996</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1198745033343395</v>
+        <v>0.1780041807419558</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03959723234280325</v>
+        <v>0.04017362795653355</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
         <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1138036421.553972</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4000753759.804343</v>
+        <v>4464595724.433377</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1036325467603178</v>
+        <v>0.1565069447976045</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03343457303067716</v>
+        <v>0.03138205322532538</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2000376893.87044</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4125804969.357791</v>
+        <v>4160179815.028665</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08762494745645386</v>
+        <v>0.08528462780787863</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03178254814881035</v>
+        <v>0.0387331784138065</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>8</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2062902479.850314</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2826219409.599597</v>
+        <v>1871946342.409818</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1288312068580283</v>
+        <v>0.1423925897561517</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05060643974897772</v>
+        <v>0.0566935684220948</v>
       </c>
       <c r="H6" t="b">
         <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1413109644.734275</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2487239164.992099</v>
+        <v>2936117496.715085</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06363502020429077</v>
+        <v>0.09127707921791581</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03058577031277306</v>
+        <v>0.03997580058039114</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>5</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1243619596.490028</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2735786178.939544</v>
+        <v>2610139675.943063</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1499068938614958</v>
+        <v>0.1502715697715723</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02701361387500887</v>
+        <v>0.02652847342205718</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>6</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1367893119.693482</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1604015584.302559</v>
+        <v>1830714972.733951</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1654683923176509</v>
+        <v>0.1717445597917544</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02526643575970112</v>
+        <v>0.03555693081726847</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>802007873.4429621</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3894975852.759208</v>
+        <v>4878014103.078048</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1381887270857382</v>
+        <v>0.168239782713515</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03502959108804685</v>
+        <v>0.03806652012384555</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>9</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1947487939.907086</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3628398538.718805</v>
+        <v>3479445403.844508</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1797842847413351</v>
+        <v>0.1751798954007365</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04287498535628929</v>
+        <v>0.03063584398754379</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>8</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1814199255.861689</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3021223872.091257</v>
+        <v>2224660906.086392</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1931177438724927</v>
+        <v>0.1549749370813618</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04502229637654104</v>
+        <v>0.05406923254454941</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>5</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1510611955.749983</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4844429279.29011</v>
+        <v>4852919373.824874</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09165376501580337</v>
+        <v>0.06313027938454767</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02481965886189225</v>
+        <v>0.02610337228413918</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>7</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2422214651.389409</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3084401514.35021</v>
+        <v>3244266208.424325</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1788151159609404</v>
+        <v>0.1638415627893428</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03132858752312301</v>
+        <v>0.03595427830646839</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>6</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1542200785.246321</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1408342505.442778</v>
+        <v>1278021590.583734</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07079677443515536</v>
+        <v>0.07002738126166903</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04851954207260246</v>
+        <v>0.03417676705691997</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>704171317.1824688</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2485444709.092995</v>
+        <v>1795921110.847697</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08528159369075025</v>
+        <v>0.08955704420705216</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04545216945610145</v>
+        <v>0.03931794367375985</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1242722386.402567</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4675664924.480011</v>
+        <v>3336571711.735175</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1509853505471769</v>
+        <v>0.1121497471910607</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04049833847104726</v>
+        <v>0.05251066131873304</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>6</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2337832463.166666</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3002035046.044279</v>
+        <v>3710474425.159771</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1119384703970331</v>
+        <v>0.1704350567240938</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02310225243853666</v>
+        <v>0.03100946754073148</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>6</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1501017552.87322</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1277017726.115889</v>
+        <v>1064253427.567941</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1204552614061574</v>
+        <v>0.1514254807047326</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02177526084178069</v>
+        <v>0.01803744345700649</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>638508959.462872</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2707494449.285366</v>
+        <v>2089407162.321177</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1363587664084318</v>
+        <v>0.1193732298127677</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0247977951299709</v>
+        <v>0.03150086703177362</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>3</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1353747175.352026</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2134848272.599445</v>
+        <v>2624865416.727448</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09544904753576965</v>
+        <v>0.07656863492138824</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04390493127772339</v>
+        <v>0.03285198445830348</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1067424159.100716</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2834763735.871579</v>
+        <v>2645320210.355502</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1441363377556206</v>
+        <v>0.1272806499139595</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04021174540663781</v>
+        <v>0.04081049146753489</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>5</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1417381939.101751</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1325892225.960203</v>
+        <v>1500340855.723388</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1484526448476536</v>
+        <v>0.1246559389210135</v>
       </c>
       <c r="G23" t="n">
-        <v>0.046134122877255</v>
+        <v>0.03890310304643185</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>662946127.9556975</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3319467277.386042</v>
+        <v>2871021093.64106</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1350765722114058</v>
+        <v>0.1123686513318895</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02608491853362906</v>
+        <v>0.02771979931050968</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>6</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1659733652.205355</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1277852542.000824</v>
+        <v>979270033.8796927</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1197338822446355</v>
+        <v>0.1130619412750507</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0291935245170762</v>
+        <v>0.01929135777734491</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>638926270.711346</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>974777634.2099826</v>
+        <v>911655366.031395</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07654434267552759</v>
+        <v>0.1040780380126007</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03009441791396569</v>
+        <v>0.02885335836153833</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>487388782.6910492</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4010077683.031773</v>
+        <v>3066924744.615131</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1286918114822168</v>
+        <v>0.1309517677913027</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0242766161482388</v>
+        <v>0.02724340946781546</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>4</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2005038850.89454</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3831702873.39811</v>
+        <v>3589906487.52119</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1196628294774889</v>
+        <v>0.1398528615655638</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04960600610950767</v>
+        <v>0.03729911475002152</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>6</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1915851519.788902</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4354118218.895118</v>
+        <v>4982967773.045715</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1050960557644381</v>
+        <v>0.1061092247908945</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03391252357482064</v>
+        <v>0.04466250627459192</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>9</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2177059101.538475</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1493756373.181547</v>
+        <v>2314623855.219353</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08882050566460804</v>
+        <v>0.1210558526735943</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03385824838939626</v>
+        <v>0.03424369028365191</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>746878166.1208923</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1423830922.030621</v>
+        <v>1436622634.958266</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09180850417675339</v>
+        <v>0.07634561393322389</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03563338158917022</v>
+        <v>0.05030649301221531</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>711915359.5484281</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1800615829.887764</v>
+        <v>1323383996.590792</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07794138691891826</v>
+        <v>0.09286662586703077</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02375412563642945</v>
+        <v>0.03739756204594959</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>900308045.3181711</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2522918195.454803</v>
+        <v>2652281396.579525</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1669828148965511</v>
+        <v>0.1822202468051712</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03949228507017847</v>
+        <v>0.04338031600448077</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>6</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1261459133.721268</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>963630973.2395877</v>
+        <v>1417070660.314403</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1189499177493904</v>
+        <v>0.1102632345766585</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02214143134137907</v>
+        <v>0.02393223198430026</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>481815530.2842343</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1044550291.17851</v>
+        <v>1163379816.126315</v>
       </c>
       <c r="F35" t="n">
-        <v>0.113025231453631</v>
+        <v>0.08705580373618663</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04295001955151822</v>
+        <v>0.03073665661935581</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>522275154.1153236</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2957322835.219273</v>
+        <v>2124263974.877369</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1344974995587559</v>
+        <v>0.1594505811073386</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0245553839520519</v>
+        <v>0.02444393558280737</v>
       </c>
       <c r="H36" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>5</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1478661402.682544</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2002885506.778341</v>
+        <v>1856098798.775954</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1039839326533169</v>
+        <v>0.09561900279467006</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03925952830861469</v>
+        <v>0.03775021917505966</v>
       </c>
       <c r="H37" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>4</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1001442780.808276</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1475887798.837681</v>
+        <v>1396539963.707347</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09027981717002501</v>
+        <v>0.101278023709147</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02450703767711636</v>
+        <v>0.0380126093738781</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>737943951.7623246</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1974497378.296809</v>
+        <v>2080185371.218019</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1335350715529171</v>
+        <v>0.1360337797937796</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03052633109330747</v>
+        <v>0.0219015679567012</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>987248687.3050718</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1527426695.296407</v>
+        <v>1352317153.928524</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1069460249153668</v>
+        <v>0.1421840995833954</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05811624477820542</v>
+        <v>0.04708084944734926</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>763713306.7428505</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2487900420.574032</v>
+        <v>2510327727.623808</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1255097951304242</v>
+        <v>0.1412920970483512</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03208177417078158</v>
+        <v>0.03382677903343847</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>6</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1243950236.499204</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3868653481.317566</v>
+        <v>3554583568.809427</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08207268962733219</v>
+        <v>0.08475175278199973</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0388580844191955</v>
+        <v>0.04074065217798875</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>6</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1934326760.661906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2472060909.222708</v>
+        <v>2476475876.281036</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1453551971229765</v>
+        <v>0.1794630735575788</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01836804237099694</v>
+        <v>0.0157725018082632</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>8</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1236030505.821934</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2281126217.007434</v>
+        <v>2289415796.744437</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09549523078646564</v>
+        <v>0.06803849707152414</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02561949326275649</v>
+        <v>0.02583962584250831</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1140563270.629875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2099351935.907696</v>
+        <v>2462211323.22323</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1946038039098441</v>
+        <v>0.1816237972252322</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03759741564536542</v>
+        <v>0.05622691260537788</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1049675968.574309</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4975185120.188454</v>
+        <v>5267242961.579828</v>
       </c>
       <c r="F46" t="n">
-        <v>0.176974191810736</v>
+        <v>0.1669896226801155</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05294073999807701</v>
+        <v>0.04417290712104319</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>7</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2487592585.207722</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4837166597.348582</v>
+        <v>3133811280.319364</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1962562603824619</v>
+        <v>0.167893807312507</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04374229263768965</v>
+        <v>0.04244064484033479</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>5</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2418583345.038241</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3598053635.866973</v>
+        <v>4614414472.283731</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08263310604092781</v>
+        <v>0.09641715088408319</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03381877529230806</v>
+        <v>0.03709818797758901</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>6</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1799026875.410813</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1596337161.296968</v>
+        <v>1798634847.439402</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1894639160307936</v>
+        <v>0.1658627734198158</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0333901748541413</v>
+        <v>0.03574603531321203</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>798168597.4234146</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3557009060.378284</v>
+        <v>2655415640.781591</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1114285779410182</v>
+        <v>0.1154011368129513</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04658400300246327</v>
+        <v>0.04610699923063072</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>7</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1778504550.088728</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1198359728.64166</v>
+        <v>1311699331.165579</v>
       </c>
       <c r="F51" t="n">
-        <v>0.121418503291621</v>
+        <v>0.1536753491382596</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04603173856649115</v>
+        <v>0.05165837014899226</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>599179915.8444816</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3729515922.202852</v>
+        <v>3502561223.800176</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09940934129252151</v>
+        <v>0.1327989174335974</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06111618792041634</v>
+        <v>0.05816841912859644</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>8</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1864758033.254091</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2712467291.027657</v>
+        <v>3553356255.546803</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1974772860698647</v>
+        <v>0.1720402645570456</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0321436038223608</v>
+        <v>0.02395849110975575</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>5</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1356233697.536778</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3967804649.146679</v>
+        <v>4092446140.894285</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1597536523630494</v>
+        <v>0.1348052925151058</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03334806944396115</v>
+        <v>0.03573935121428835</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>6</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1983902385.85173</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4026941609.288346</v>
+        <v>4939084400.94428</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1851358920488946</v>
+        <v>0.1820479818730026</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03261461003477439</v>
+        <v>0.02239988926815643</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>5</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2013470780.486674</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1794420067.571878</v>
+        <v>1737325443.768001</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1387413692891858</v>
+        <v>0.1013594267549341</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0521008212480928</v>
+        <v>0.04374341287178556</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>897210032.2644035</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3847524465.921128</v>
+        <v>3567487810.112517</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1829114412846286</v>
+        <v>0.1596209754218307</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01782521936288826</v>
+        <v>0.02143636679526638</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>6</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1923762308.245756</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1549842991.112651</v>
+        <v>1232036310.275486</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1247299007350359</v>
+        <v>0.1321626458718216</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03922966403695061</v>
+        <v>0.03617601010237756</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>774921521.8842506</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4640525686.053825</v>
+        <v>4163511376.759922</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08220171303506711</v>
+        <v>0.1022192000606396</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04307439928613691</v>
+        <v>0.03791409426362412</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>5</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2320262787.823973</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3279411454.273358</v>
+        <v>3430702221.124159</v>
       </c>
       <c r="F60" t="n">
-        <v>0.203800220563489</v>
+        <v>0.1444186103159787</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0285834561519682</v>
+        <v>0.02830340120633733</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>6</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1639705826.464084</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3401920739.06659</v>
+        <v>3358397702.34155</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1463675254244131</v>
+        <v>0.1669729172231496</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02365536843530135</v>
+        <v>0.02757963772647127</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>6</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1700960311.739528</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2083674148.396678</v>
+        <v>1913183488.47933</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1508720245685062</v>
+        <v>0.1544147798235809</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04550171222533977</v>
+        <v>0.04361442259911594</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1041837144.547484</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4539684680.432397</v>
+        <v>3585693434.807608</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09837874749951943</v>
+        <v>0.1033374830150031</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04182271241786806</v>
+        <v>0.04410131138648175</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>5</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2269842378.263318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5436790102.440948</v>
+        <v>4008797715.327271</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1246469764876829</v>
+        <v>0.1809850482925301</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02640462259061171</v>
+        <v>0.03007082295046462</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>6</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2718395187.915845</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5521955556.530846</v>
+        <v>4174735001.484875</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1340695062070124</v>
+        <v>0.1258654596962759</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02082316519517604</v>
+        <v>0.0247499565258853</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>7</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2760977705.712522</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5567114664.487904</v>
+        <v>4227488071.546625</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1031982714183085</v>
+        <v>0.1248905013811015</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04795067823718978</v>
+        <v>0.04337627466031522</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>6</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2783557389.529472</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3372500056.689157</v>
+        <v>2620670792.438063</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07891956735746743</v>
+        <v>0.08257525341060623</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03909647390735062</v>
+        <v>0.03132765395170331</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>6</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1686250014.866848</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5173434397.99816</v>
+        <v>4411892684.459058</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1240185963084533</v>
+        <v>0.1150140082298592</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03934563376161857</v>
+        <v>0.03745853315180167</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>6</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2586717265.584383</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2457832899.180089</v>
+        <v>1497115314.383049</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1547660022354688</v>
+        <v>0.1399078319508491</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04596963072483994</v>
+        <v>0.05341161959684479</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1228916513.497908</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2486505436.252913</v>
+        <v>2699414239.772829</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07458078879872956</v>
+        <v>0.08137793809426595</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04808064824290741</v>
+        <v>0.03877719989858739</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>5</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1243252661.453329</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4247407456.763525</v>
+        <v>4558241295.60829</v>
       </c>
       <c r="F71" t="n">
-        <v>0.152201399478453</v>
+        <v>0.1774470816355745</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03128744217492439</v>
+        <v>0.02630272073146822</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>7</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2123703777.659008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1766866625.624235</v>
+        <v>2176247391.101343</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06652751604149403</v>
+        <v>0.08850817878882491</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03811474719238699</v>
+        <v>0.04724854491595471</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>883433296.4864917</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3493915369.147325</v>
+        <v>2494938838.505003</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09062410445881751</v>
+        <v>0.09812589381526569</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03922688757785429</v>
+        <v>0.04556519925329581</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>7</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1746957635.10509</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3841950568.412757</v>
+        <v>2443868650.931836</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1720845819737184</v>
+        <v>0.145816379187948</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03126077075041945</v>
+        <v>0.03296481533711371</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>7</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1920975276.567277</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1780171510.267955</v>
+        <v>1620201789.567448</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1554238415716091</v>
+        <v>0.1020133145688233</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0313737778587923</v>
+        <v>0.03499565962457916</v>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>890085739.6826928</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3272157402.100966</v>
+        <v>4177940216.016062</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1096961340248093</v>
+        <v>0.1047869934996734</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02565853354320007</v>
+        <v>0.02067395386091299</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>4</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1636078654.938533</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1482939874.046335</v>
+        <v>2090711521.093572</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1196795539771938</v>
+        <v>0.1672674103286836</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03011765548565281</v>
+        <v>0.02482657000491445</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>741469921.9168243</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4318049328.329774</v>
+        <v>4552862582.470552</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1331736542934588</v>
+        <v>0.08888382392525175</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03765592030714594</v>
+        <v>0.04775768469052509</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>7</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2159024606.883486</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1183102180.030143</v>
+        <v>1492936602.690067</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1330344042647096</v>
+        <v>0.1622992010926818</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03964162213623295</v>
+        <v>0.03456548960140521</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>591551068.6188565</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3868124103.243407</v>
+        <v>4426847944.331952</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07936886821518485</v>
+        <v>0.09435732434210811</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02820470743659465</v>
+        <v>0.03862708391470285</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>4</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1934062044.289051</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4445955590.606887</v>
+        <v>4434743562.815179</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0921764780439298</v>
+        <v>0.1118936382401765</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02158674001959284</v>
+        <v>0.02964965751037232</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>4</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2222977774.833843</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3898987502.413102</v>
+        <v>4049466491.256575</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1343364280350614</v>
+        <v>0.1446983594495524</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02903407007729622</v>
+        <v>0.02020531033858841</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>7</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1949493796.268764</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1746553584.302922</v>
+        <v>1743024571.509431</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1569543474548542</v>
+        <v>0.1399675227826749</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03001198059270707</v>
+        <v>0.03289804998017079</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>873276745.592176</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1941444283.574176</v>
+        <v>1893672864.684321</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1066618572359055</v>
+        <v>0.1175936178015072</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03213528365573189</v>
+        <v>0.04106837476463653</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>970722155.1311724</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3140657088.763218</v>
+        <v>3506396388.809417</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1837935831880698</v>
+        <v>0.1119224899436306</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03898446012436286</v>
+        <v>0.03546551041440323</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>7</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1570328619.809247</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2033300567.795722</v>
+        <v>1688309461.972744</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1679063114184478</v>
+        <v>0.1480363909207643</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01834875278971904</v>
+        <v>0.02470410971261919</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1016650315.927743</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1058463894.69349</v>
+        <v>1377401388.617925</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1656275717762612</v>
+        <v>0.1449011539407812</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04380023226370446</v>
+        <v>0.04317282938651629</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>529231966.3753903</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2582240470.10793</v>
+        <v>2952932259.419622</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1497979708801162</v>
+        <v>0.1255609723710944</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03096008678303716</v>
+        <v>0.03578621678887627</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>8</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1291120223.927074</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2527435795.081538</v>
+        <v>2135506782.622365</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1533791519133712</v>
+        <v>0.1530152882068671</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02753540227608202</v>
+        <v>0.03472425328929913</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>7</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1263717970.063104</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2076312504.485903</v>
+        <v>1558556899.586436</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1310375242227741</v>
+        <v>0.1006916853047399</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04746124048707672</v>
+        <v>0.03944807235271049</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1038156336.187229</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1638823387.705223</v>
+        <v>1609737225.530144</v>
       </c>
       <c r="F91" t="n">
-        <v>0.157459213237937</v>
+        <v>0.1647983152213875</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05764387743096456</v>
+        <v>0.04547919036301033</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>819411714.0023459</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2758910069.314278</v>
+        <v>2874484704.129017</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06912233496844906</v>
+        <v>0.09397135953811091</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03497838875088205</v>
+        <v>0.03278336948997713</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>5</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1379455037.875623</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3407314492.979274</v>
+        <v>3920771757.906044</v>
       </c>
       <c r="F93" t="n">
-        <v>0.12020360816907</v>
+        <v>0.1312486162762832</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0339457466198272</v>
+        <v>0.04797116957817345</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>6</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1703657285.18507</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1528259694.310758</v>
+        <v>1678664833.267256</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1318531766650797</v>
+        <v>0.1442014019585194</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0292510647542904</v>
+        <v>0.03461618684767118</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>764129783.7770867</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2869615810.507341</v>
+        <v>2301417285.796296</v>
       </c>
       <c r="F95" t="n">
-        <v>0.131740318865319</v>
+        <v>0.1379813780839734</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03334111067082002</v>
+        <v>0.03294412161941342</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>4</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1434807914.190842</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1789329616.876482</v>
+        <v>2074284421.10989</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1379299771511712</v>
+        <v>0.1313791761411603</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04086762198261821</v>
+        <v>0.03433973541378887</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>894664817.5851123</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4488490625.117864</v>
+        <v>3682401712.493675</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1662400986677451</v>
+        <v>0.148062397808058</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02254901675613634</v>
+        <v>0.02842391419822794</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>6</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2244245407.951736</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2497849953.768086</v>
+        <v>2923811896.290452</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1211857280804583</v>
+        <v>0.110323728564727</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03124504789886336</v>
+        <v>0.02163492275857876</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>5</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1248924927.202854</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2954804364.209215</v>
+        <v>2795638088.401031</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1174180906124416</v>
+        <v>0.1419905101031911</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02221508775321522</v>
+        <v>0.02163887939681931</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>6</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1477402164.525393</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3223881267.205876</v>
+        <v>3230151498.251398</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1108246330917998</v>
+        <v>0.1100725924824146</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02371965155678871</v>
+        <v>0.02580744717399603</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>6</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1611940642.075353</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3313938676.529639</v>
+        <v>3540433519.230394</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1958306850816964</v>
+        <v>0.2215391961447609</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04486411491707183</v>
+        <v>0.03968895643732017</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>9</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1656969468.572832</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_20.xlsx
+++ b/output/fit_clients/fit_round_20.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1806998910.272413</v>
+        <v>1765914387.305943</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08798416493150746</v>
+        <v>0.08262237261657636</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03853377427960947</v>
+        <v>0.03236393656261433</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1779750235.432996</v>
+        <v>1861139130.589996</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1780041807419558</v>
+        <v>0.1505883617696647</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04017362795653355</v>
+        <v>0.03204997197040148</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4464595724.433377</v>
+        <v>4249156832.644547</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1565069447976045</v>
+        <v>0.1317918059934104</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03138205322532538</v>
+        <v>0.03468664435358772</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,22 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4160179815.028665</v>
+        <v>2889645184.283039</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08528462780787863</v>
+        <v>0.09307150331194121</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0387331784138065</v>
+        <v>0.0362076944397255</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1871946342.409818</v>
+        <v>2881149018.643818</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1423925897561517</v>
+        <v>0.1430528208422463</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0566935684220948</v>
+        <v>0.04347594342877083</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2936117496.715085</v>
+        <v>2318982083.193112</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09127707921791581</v>
+        <v>0.06670214455110643</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03997580058039114</v>
+        <v>0.04179257944215626</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2610139675.943063</v>
+        <v>2467413601.276019</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1502715697715723</v>
+        <v>0.1559647340783372</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02652847342205718</v>
+        <v>0.0243716774967825</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1830714972.733951</v>
+        <v>1777106517.254074</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1717445597917544</v>
+        <v>0.138752219114124</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03555693081726847</v>
+        <v>0.02586961622543724</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4878014103.078048</v>
+        <v>4103782680.09033</v>
       </c>
       <c r="F10" t="n">
-        <v>0.168239782713515</v>
+        <v>0.164276369009781</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03806652012384555</v>
+        <v>0.05102759681497422</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3479445403.844508</v>
+        <v>2656158181.642274</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1751798954007365</v>
+        <v>0.1242219019773725</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03063584398754379</v>
+        <v>0.03783586845471086</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2224660906.086392</v>
+        <v>3052708029.900227</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1549749370813618</v>
+        <v>0.1954723672429544</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05406923254454941</v>
+        <v>0.04055941843014963</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4852919373.824874</v>
+        <v>4570441649.484377</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06313027938454767</v>
+        <v>0.08897434329112607</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02610337228413918</v>
+        <v>0.02737378580526295</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3244266208.424325</v>
+        <v>2551582397.059333</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1638415627893428</v>
+        <v>0.1513419411848674</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03595427830646839</v>
+        <v>0.03205177513589665</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1278021590.583734</v>
+        <v>1121958627.239891</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07002738126166903</v>
+        <v>0.09348892532753694</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03417676705691997</v>
+        <v>0.03740787614864399</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1795921110.847697</v>
+        <v>2236127420.674213</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08955704420705216</v>
+        <v>0.08582322067877933</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03931794367375985</v>
+        <v>0.03455249129363724</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3336571711.735175</v>
+        <v>4600008776.928826</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1121497471910607</v>
+        <v>0.1434932604780499</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05251066131873304</v>
+        <v>0.05120413506284041</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3710474425.159771</v>
+        <v>2810512368.975714</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1704350567240938</v>
+        <v>0.1435186573676502</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03100946754073148</v>
+        <v>0.02957452165850944</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1064253427.567941</v>
+        <v>1349232122.107471</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1514254807047326</v>
+        <v>0.1361829635366033</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01803744345700649</v>
+        <v>0.02701150560733498</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2089407162.321177</v>
+        <v>2552568614.112774</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1193732298127677</v>
+        <v>0.1022552043651487</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03150086703177362</v>
+        <v>0.02958981105358487</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2624865416.727448</v>
+        <v>2567597691.093456</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07656863492138824</v>
+        <v>0.06681216443455827</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03285198445830348</v>
+        <v>0.04323271363929038</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1046,16 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2645320210.355502</v>
+        <v>3308354678.26456</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1272806499139595</v>
+        <v>0.08981307335779622</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04081049146753489</v>
+        <v>0.04375028048901028</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1500340855.723388</v>
+        <v>1432740630.402945</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1246559389210135</v>
+        <v>0.1659246329297282</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03890310304643185</v>
+        <v>0.03741113807283694</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2871021093.64106</v>
+        <v>3963854837.338879</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1123686513318895</v>
+        <v>0.09133496302997994</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02771979931050968</v>
+        <v>0.03595309192921884</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>979270033.8796927</v>
+        <v>1336854934.884627</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1130619412750507</v>
+        <v>0.1164378306021186</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01929135777734491</v>
+        <v>0.02547464032959711</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>911655366.031395</v>
+        <v>935842934.0675695</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1040780380126007</v>
+        <v>0.1109445193543812</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02885335836153833</v>
+        <v>0.02834332904076629</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3066924744.615131</v>
+        <v>3063016168.979182</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1309517677913027</v>
+        <v>0.1145340650383387</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02724340946781546</v>
+        <v>0.02700898146619405</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3589906487.52119</v>
+        <v>2865527631.904355</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1398528615655638</v>
+        <v>0.1033456800462261</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03729911475002152</v>
+        <v>0.04077358411226114</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4982967773.045715</v>
+        <v>4853171545.263635</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1061092247908945</v>
+        <v>0.1117214078276049</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04466250627459192</v>
+        <v>0.04525210938902014</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2314623855.219353</v>
+        <v>1616451931.969859</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1210558526735943</v>
+        <v>0.0899776171322865</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03424369028365191</v>
+        <v>0.03691691791020369</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1436622634.958266</v>
+        <v>1386470474.349108</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07634561393322389</v>
+        <v>0.07458027375590021</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05030649301221531</v>
+        <v>0.03452489448838454</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1323383996.590792</v>
+        <v>1736523528.515022</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09286662586703077</v>
+        <v>0.07601597742189296</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03739756204594959</v>
+        <v>0.02660192714471387</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2652281396.579525</v>
+        <v>2072863619.600854</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1822202468051712</v>
+        <v>0.1649440750168862</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04338031600448077</v>
+        <v>0.05741327060765665</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1417070660.314403</v>
+        <v>1180618472.404439</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1102632345766585</v>
+        <v>0.09386435945081116</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02393223198430026</v>
+        <v>0.02177973954657249</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1163379816.126315</v>
+        <v>1251267548.356843</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08705580373618663</v>
+        <v>0.115840288239333</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03073665661935581</v>
+        <v>0.02842009779170431</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2124263974.877369</v>
+        <v>2675760517.098672</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1594505811073386</v>
+        <v>0.1703827101109452</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02444393558280737</v>
+        <v>0.02660843296598891</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1466,16 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1856098798.775954</v>
+        <v>2210224887.782578</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09561900279467006</v>
+        <v>0.07763216607552342</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03775021917505966</v>
+        <v>0.03692253171959308</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1396539963.707347</v>
+        <v>1622920910.980151</v>
       </c>
       <c r="F38" t="n">
-        <v>0.101278023709147</v>
+        <v>0.07433091062981201</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0380126093738781</v>
+        <v>0.0339235914708822</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2080185371.218019</v>
+        <v>1859707381.669868</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1360337797937796</v>
+        <v>0.1677646836472506</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0219015679567012</v>
+        <v>0.02780264727821724</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1352317153.928524</v>
+        <v>1232127194.188401</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1421840995833954</v>
+        <v>0.1315914967113991</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04708084944734926</v>
+        <v>0.05445279157602186</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2510327727.623808</v>
+        <v>2583007578.116983</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1412920970483512</v>
+        <v>0.146005688588155</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03382677903343847</v>
+        <v>0.03415824046476948</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3554583568.809427</v>
+        <v>2822708404.959776</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08475175278199973</v>
+        <v>0.1218384465117455</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04074065217798875</v>
+        <v>0.0354703196323163</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2476475876.281036</v>
+        <v>2033185114.658786</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1794630735575788</v>
+        <v>0.1633408730525327</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0157725018082632</v>
+        <v>0.02126558825302501</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2289415796.744437</v>
+        <v>1961299632.015742</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06803849707152414</v>
+        <v>0.08017675212185196</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02583962584250831</v>
+        <v>0.02926682253764789</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2462211323.22323</v>
+        <v>1565686449.794399</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1816237972252322</v>
+        <v>0.1705955343460133</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05622691260537788</v>
+        <v>0.04638830479882772</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,19 +1712,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5267242961.579828</v>
+        <v>4197418663.415298</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1669896226801155</v>
+        <v>0.1352927066022224</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04417290712104319</v>
+        <v>0.05419338607281596</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1746,13 +1746,13 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3133811280.319364</v>
+        <v>4251335179.931017</v>
       </c>
       <c r="F47" t="n">
-        <v>0.167893807312507</v>
+        <v>0.1647785108382612</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04244064484033479</v>
+        <v>0.05873468769274617</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4614414472.283731</v>
+        <v>4412323648.475298</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09641715088408319</v>
+        <v>0.07753942923315769</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03709818797758901</v>
+        <v>0.03139874456892787</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1798634847.439402</v>
+        <v>1391938799.753815</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1658627734198158</v>
+        <v>0.1765363806042456</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03574603531321203</v>
+        <v>0.02733753188081494</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,22 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2655415640.781591</v>
+        <v>2624432908.449631</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1154011368129513</v>
+        <v>0.1419732266490357</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04610699923063072</v>
+        <v>0.03698875799577078</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1311699331.165579</v>
+        <v>985367316.0607095</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1536753491382596</v>
+        <v>0.118957736798579</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05165837014899226</v>
+        <v>0.03876782269549627</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3502561223.800176</v>
+        <v>4027946282.552104</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1327989174335974</v>
+        <v>0.1007595159550941</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05816841912859644</v>
+        <v>0.04278502795425727</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3553356255.546803</v>
+        <v>2444747297.384421</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1720402645570456</v>
+        <v>0.1676915725832619</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02395849110975575</v>
+        <v>0.02527244919052943</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,19 +1936,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4092446140.894285</v>
+        <v>3493068311.92107</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1348052925151058</v>
+        <v>0.1181869755155225</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03573935121428835</v>
+        <v>0.04574885403958046</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4939084400.94428</v>
+        <v>3085902765.17414</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1820479818730026</v>
+        <v>0.1941009050542378</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02239988926815643</v>
+        <v>0.02334547862324463</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1737325443.768001</v>
+        <v>1473203692.733221</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1013594267549341</v>
+        <v>0.1614034500130133</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04374341287178556</v>
+        <v>0.04161331599590198</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3567487810.112517</v>
+        <v>3340561523.764927</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1596209754218307</v>
+        <v>0.1150266919289745</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02143636679526638</v>
+        <v>0.02401558926522242</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1232036310.275486</v>
+        <v>1161952334.851837</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1321626458718216</v>
+        <v>0.1450205109388398</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03617601010237756</v>
+        <v>0.03124667760953144</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,22 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4163511376.759922</v>
+        <v>5151200118.603536</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1022192000606396</v>
+        <v>0.1169081104386263</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03791409426362412</v>
+        <v>0.03909192580219759</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3430702221.124159</v>
+        <v>3766533810.378048</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1444186103159787</v>
+        <v>0.1841481800699914</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02830340120633733</v>
+        <v>0.03153058745867689</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3358397702.34155</v>
+        <v>2935964947.536422</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1669729172231496</v>
+        <v>0.168008564703696</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02757963772647127</v>
+        <v>0.02341095384034962</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1913183488.47933</v>
+        <v>1785186135.004508</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1544147798235809</v>
+        <v>0.1246880354135551</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04361442259911594</v>
+        <v>0.03121603868094729</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3585693434.807608</v>
+        <v>5141862536.244979</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1033374830150031</v>
+        <v>0.07368938425194718</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04410131138648175</v>
+        <v>0.03183188941074667</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,19 +2216,19 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4008797715.327271</v>
+        <v>3341857888.209291</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1809850482925301</v>
+        <v>0.1246696601193076</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03007082295046462</v>
+        <v>0.02257011887060532</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4174735001.484875</v>
+        <v>5646202011.599394</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1258654596962759</v>
+        <v>0.1326023222474164</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0247499565258853</v>
+        <v>0.03028069232731807</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4227488071.546625</v>
+        <v>5278959278.632992</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1248905013811015</v>
+        <v>0.1318693472131812</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04337627466031522</v>
+        <v>0.03235949569153932</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2620670792.438063</v>
+        <v>2817441161.518622</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08257525341060623</v>
+        <v>0.08021612053890551</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03132765395170331</v>
+        <v>0.03328903834449063</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4411892684.459058</v>
+        <v>5789148797.782449</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1150140082298592</v>
+        <v>0.1143935587726226</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03745853315180167</v>
+        <v>0.04058468624139108</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1497115314.383049</v>
+        <v>1554441407.583644</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1399078319508491</v>
+        <v>0.149634194250803</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05341161959684479</v>
+        <v>0.05427612557273855</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2699414239.772829</v>
+        <v>2932280530.708765</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08137793809426595</v>
+        <v>0.06321490997703404</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03877719989858739</v>
+        <v>0.04827512573846653</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4558241295.60829</v>
+        <v>4802523601.125278</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1774470816355745</v>
+        <v>0.1682154154130705</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02630272073146822</v>
+        <v>0.03073608558668562</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,16 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2176247391.101343</v>
+        <v>1945038666.546786</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08850817878882491</v>
+        <v>0.07179477885082167</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04724854491595471</v>
+        <v>0.03275613298370272</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2494938838.505003</v>
+        <v>2493908689.851514</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09812589381526569</v>
+        <v>0.1087717595977547</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04556519925329581</v>
+        <v>0.04174403638535767</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2443868650.931836</v>
+        <v>3759917790.357516</v>
       </c>
       <c r="F74" t="n">
-        <v>0.145816379187948</v>
+        <v>0.1695007660077873</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03296481533711371</v>
+        <v>0.02403347269104257</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1620201789.567448</v>
+        <v>1550392058.636592</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1020133145688233</v>
+        <v>0.1474546535626184</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03499565962457916</v>
+        <v>0.02920248930370312</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4177940216.016062</v>
+        <v>4762923142.837017</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1047869934996734</v>
+        <v>0.07678247232780823</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02067395386091299</v>
+        <v>0.03113814311060192</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2090711521.093572</v>
+        <v>2002630016.253364</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1672674103286836</v>
+        <v>0.1195078993687004</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02482657000491445</v>
+        <v>0.0231428433759773</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4552862582.470552</v>
+        <v>3583104936.880731</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08888382392525175</v>
+        <v>0.1371311064818847</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04775768469052509</v>
+        <v>0.0385431689205916</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1492936602.690067</v>
+        <v>1301613408.232188</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1622992010926818</v>
+        <v>0.1596912847242438</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03456548960140521</v>
+        <v>0.03059827312088447</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4426847944.331952</v>
+        <v>4840497032.514627</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09435732434210811</v>
+        <v>0.1020297908712634</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03862708391470285</v>
+        <v>0.02653397190357427</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4434743562.815179</v>
+        <v>4738654314.764529</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1118936382401765</v>
+        <v>0.1255676016735008</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02964965751037232</v>
+        <v>0.02296361455865722</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4049466491.256575</v>
+        <v>4664659738.384043</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1446983594495524</v>
+        <v>0.191377694658731</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02020531033858841</v>
+        <v>0.01801029918487745</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1743024571.509431</v>
+        <v>1642830985.50231</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1399675227826749</v>
+        <v>0.1513079786132925</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03289804998017079</v>
+        <v>0.03374846025262132</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,16 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1893672864.684321</v>
+        <v>2011078773.923192</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1175936178015072</v>
+        <v>0.1170527242453675</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04106837476463653</v>
+        <v>0.05150733660261475</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3506396388.809417</v>
+        <v>2977971611.013943</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1119224899436306</v>
+        <v>0.1385957796192716</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03546551041440323</v>
+        <v>0.03461663969270836</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1688309461.972744</v>
+        <v>1697599057.799223</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1480363909207643</v>
+        <v>0.127524832247381</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02470410971261919</v>
+        <v>0.02480745031124464</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1377401388.617925</v>
+        <v>1057019871.900545</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1449011539407812</v>
+        <v>0.1723790524378161</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04317282938651629</v>
+        <v>0.03430274248410261</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2952932259.419622</v>
+        <v>3450615971.813177</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1255609723710944</v>
+        <v>0.1398287524581678</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03578621678887627</v>
+        <v>0.02490120521165402</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2135506782.622365</v>
+        <v>3285222128.419345</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1530152882068671</v>
+        <v>0.1593369712607116</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03472425328929913</v>
+        <v>0.0325524237178577</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1558556899.586436</v>
+        <v>1317670450.660522</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1006916853047399</v>
+        <v>0.1226548857437775</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03944807235271049</v>
+        <v>0.05630135123770975</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1609737225.530144</v>
+        <v>1556908429.910907</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1647983152213875</v>
+        <v>0.1870239891306886</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04547919036301033</v>
+        <v>0.05470322127550212</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2874484704.129017</v>
+        <v>2546481647.617054</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09397135953811091</v>
+        <v>0.08535540416174252</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03278336948997713</v>
+        <v>0.04210495644198189</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3920771757.906044</v>
+        <v>4247130812.988881</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1312486162762832</v>
+        <v>0.09816034952779092</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04797116957817345</v>
+        <v>0.03681277156987059</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1678664833.267256</v>
+        <v>1564342367.972048</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1442014019585194</v>
+        <v>0.1494926198063239</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03461618684767118</v>
+        <v>0.03988021799141389</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2301417285.796296</v>
+        <v>3082537422.288338</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1379813780839734</v>
+        <v>0.1360327175052249</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03294412161941342</v>
+        <v>0.0453538501930849</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2074284421.10989</v>
+        <v>1810192183.691068</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1313791761411603</v>
+        <v>0.1185654133576651</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03433973541378887</v>
+        <v>0.04533823080811652</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3682401712.493675</v>
+        <v>4681254312.951381</v>
       </c>
       <c r="F97" t="n">
-        <v>0.148062397808058</v>
+        <v>0.1143474437208732</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02842391419822794</v>
+        <v>0.0267615066878522</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2923811896.290452</v>
+        <v>2594492428.212341</v>
       </c>
       <c r="F98" t="n">
-        <v>0.110323728564727</v>
+        <v>0.1188720681608545</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02163492275857876</v>
+        <v>0.02260763781228395</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2795638088.401031</v>
+        <v>2624116332.390708</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1419905101031911</v>
+        <v>0.105853175421634</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02163887939681931</v>
+        <v>0.03488573542795154</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3230151498.251398</v>
+        <v>4703531427.016954</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1100725924824146</v>
+        <v>0.1332811454789997</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02580744717399603</v>
+        <v>0.02540924000418425</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3540433519.230394</v>
+        <v>3262976623.785328</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2215391961447609</v>
+        <v>0.1929877651749368</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03968895643732017</v>
+        <v>0.03901489012350209</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_20.xlsx
+++ b/output/fit_clients/fit_round_20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1765914387.305943</v>
+        <v>2139133508.243085</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08262237261657636</v>
+        <v>0.07099560320998324</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03236393656261433</v>
+        <v>0.03076089771561039</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1861139130.589996</v>
+        <v>1644954763.285228</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1505883617696647</v>
+        <v>0.1225599439632569</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03204997197040148</v>
+        <v>0.03277082344811317</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4249156832.644547</v>
+        <v>3378722191.960259</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1317918059934104</v>
+        <v>0.1621492993030024</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03468664435358772</v>
+        <v>0.03113927188067719</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
+      <c r="I4" t="n">
+        <v>15</v>
+      </c>
+      <c r="J4" t="n">
+        <v>18</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +600,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2889645184.283039</v>
+        <v>3748550593.896057</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09307150331194121</v>
+        <v>0.07874003813194431</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0362076944397255</v>
+        <v>0.04737630086833333</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>10</v>
+      </c>
+      <c r="J5" t="n">
+        <v>20</v>
+      </c>
+      <c r="K5" t="n">
+        <v>214.0510432311082</v>
       </c>
     </row>
     <row r="6">
@@ -598,17 +643,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2881149018.643818</v>
+        <v>2540175266.758728</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1430528208422463</v>
+        <v>0.1395663955959942</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04347594342877083</v>
+        <v>0.05631021691281358</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2318982083.193112</v>
+        <v>1966876316.022756</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06670214455110643</v>
+        <v>0.06723998719410736</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04179257944215626</v>
+        <v>0.03697800402571663</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2467413601.276019</v>
+        <v>2949228213.925979</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1559647340783372</v>
+        <v>0.1797073704564262</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0243716774967825</v>
+        <v>0.02913415941969224</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>6</v>
+      </c>
+      <c r="J8" t="n">
+        <v>17</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1777106517.254074</v>
+        <v>1630833832.317759</v>
       </c>
       <c r="F9" t="n">
-        <v>0.138752219114124</v>
+        <v>0.1404153876617362</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02586961622543724</v>
+        <v>0.03454792400733508</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4103782680.09033</v>
+        <v>4980150054.285251</v>
       </c>
       <c r="F10" t="n">
-        <v>0.164276369009781</v>
+        <v>0.1886528722334368</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05102759681497422</v>
+        <v>0.04822347432271063</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>19</v>
+      </c>
+      <c r="J10" t="n">
+        <v>20</v>
+      </c>
+      <c r="K10" t="n">
+        <v>238.9904369592192</v>
       </c>
     </row>
     <row r="11">
@@ -738,17 +820,24 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2656158181.642274</v>
+        <v>3938239070.749133</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1242219019773725</v>
+        <v>0.1558224040217169</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03783586845471086</v>
+        <v>0.03034784631211853</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>8</v>
+      </c>
+      <c r="J11" t="n">
+        <v>20</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3052708029.900227</v>
+        <v>3124069594.861036</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1954723672429544</v>
+        <v>0.1980555245603646</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04055941843014963</v>
+        <v>0.05140002842958118</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +884,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4570441649.484377</v>
+        <v>4847262578.406801</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08897434329112607</v>
+        <v>0.06787419185288544</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02737378580526295</v>
+        <v>0.02788674978972847</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>9</v>
+      </c>
+      <c r="J13" t="n">
+        <v>19</v>
+      </c>
+      <c r="K13" t="n">
+        <v>212.0896066629839</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +921,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2551582397.059333</v>
+        <v>2606761464.511121</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1513419411848674</v>
+        <v>0.173127091309079</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03205177513589665</v>
+        <v>0.02728774178171704</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3</v>
+      </c>
+      <c r="J14" t="n">
+        <v>19</v>
+      </c>
+      <c r="K14" t="n">
+        <v>96.58799762519703</v>
       </c>
     </row>
     <row r="15">
@@ -844,23 +958,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1121958627.239891</v>
+        <v>1744939376.252315</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09348892532753694</v>
+        <v>0.09445049424792307</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03740787614864399</v>
+        <v>0.03037416789680809</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2236127420.674213</v>
+        <v>2841343332.181918</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08582322067877933</v>
+        <v>0.1113074031339197</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03455249129363724</v>
+        <v>0.03824983532601592</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1028,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4600008776.928826</v>
+        <v>4845741952.042987</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1434932604780499</v>
+        <v>0.1608932019850674</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05120413506284041</v>
+        <v>0.03305878821967779</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>9</v>
+      </c>
+      <c r="J17" t="n">
+        <v>20</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,22 +1063,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2810512368.975714</v>
+        <v>3183527951.612154</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1435186573676502</v>
+        <v>0.1554486190002619</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02957452165850944</v>
+        <v>0.03199783328801141</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>19</v>
+      </c>
+      <c r="K18" t="n">
+        <v>144.9407364095658</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1100,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1349232122.107471</v>
+        <v>917191850.1163117</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1361829635366033</v>
+        <v>0.1908606366870814</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02701150560733498</v>
+        <v>0.02297220898168351</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1135,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2552568614.112774</v>
+        <v>2436700254.295975</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1022552043651487</v>
+        <v>0.1274805266571583</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02958981105358487</v>
+        <v>0.02504393260906039</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1176,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2567597691.093456</v>
+        <v>2381820285.698307</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06681216443455827</v>
+        <v>0.07498429010422691</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04323271363929038</v>
+        <v>0.03835327246179308</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1205,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3308354678.26456</v>
+        <v>3650048664.834082</v>
       </c>
       <c r="F22" t="n">
-        <v>0.08981307335779622</v>
+        <v>0.136609355598596</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04375028048901028</v>
+        <v>0.05004238433063414</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>4</v>
+      </c>
+      <c r="J22" t="n">
+        <v>20</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1240,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1432740630.402945</v>
+        <v>1307689330.126577</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1659246329297282</v>
+        <v>0.1392439598228399</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03741113807283694</v>
+        <v>0.05181632083956594</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1275,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3963854837.338879</v>
+        <v>3506480377.973635</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09133496302997994</v>
+        <v>0.1429439852228987</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03595309192921884</v>
+        <v>0.02421250851959419</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>5</v>
+      </c>
+      <c r="J24" t="n">
+        <v>20</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1310,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1336854934.884627</v>
+        <v>968510260.7856394</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1164378306021186</v>
+        <v>0.1211625814777817</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02547464032959711</v>
+        <v>0.02151986513966346</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1345,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>935842934.0675695</v>
+        <v>1402442162.412436</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1109445193543812</v>
+        <v>0.1247598076401614</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02834332904076629</v>
+        <v>0.02540665978296312</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1380,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3063016168.979182</v>
+        <v>3985155171.426218</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1145340650383387</v>
+        <v>0.1284409945933688</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02700898146619405</v>
+        <v>0.0239032233933176</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>9</v>
+      </c>
+      <c r="J27" t="n">
+        <v>19</v>
+      </c>
+      <c r="K27" t="n">
+        <v>171.508769308357</v>
       </c>
     </row>
     <row r="28">
@@ -1214,16 +1423,25 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2865527631.904355</v>
+        <v>3394277450.684552</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1033456800462261</v>
+        <v>0.101161862113714</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04077358411226114</v>
+        <v>0.0385174486620029</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>5</v>
+      </c>
+      <c r="J28" t="n">
+        <v>19</v>
+      </c>
+      <c r="K28" t="n">
+        <v>164.0336657101624</v>
       </c>
     </row>
     <row r="29">
@@ -1236,23 +1454,30 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4853171545.263635</v>
+        <v>4343375676.199393</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1117214078276049</v>
+        <v>0.150347205478638</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04525210938902014</v>
+        <v>0.02951993949680553</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>18</v>
+      </c>
+      <c r="J29" t="n">
+        <v>20</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1270,17 +1495,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1616451931.969859</v>
+        <v>1809319753.530147</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0899776171322865</v>
+        <v>0.1378404890096965</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03691691791020369</v>
+        <v>0.03389368716075569</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1524,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1386470474.349108</v>
+        <v>1258381759.149212</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07458027375590021</v>
+        <v>0.07597951434457337</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03452489448838454</v>
+        <v>0.03493116910163861</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1559,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1736523528.515022</v>
+        <v>1160904210.904616</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07601597742189296</v>
+        <v>0.08443726360502102</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02660192714471387</v>
+        <v>0.02414098461178682</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1600,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2072863619.600854</v>
+        <v>2748614047.842469</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1649440750168862</v>
+        <v>0.1811629619232675</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05741327060765665</v>
+        <v>0.0487524927605874</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1629,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1180618472.404439</v>
+        <v>1308716506.533047</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09386435945081116</v>
+        <v>0.07986308588099401</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02177973954657249</v>
+        <v>0.02224629134188345</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1664,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1251267548.356843</v>
+        <v>1153089487.070728</v>
       </c>
       <c r="F35" t="n">
-        <v>0.115840288239333</v>
+        <v>0.07548993214706998</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02842009779170431</v>
+        <v>0.03028650155421969</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1705,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2675760517.098672</v>
+        <v>2955770663.732821</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1703827101109452</v>
+        <v>0.1594510139389148</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02660843296598891</v>
+        <v>0.02191094189153934</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1734,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2210224887.782578</v>
+        <v>2822417746.382326</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07763216607552342</v>
+        <v>0.08144031385363307</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03692253171959308</v>
+        <v>0.03954000524850171</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1769,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1622920910.980151</v>
+        <v>1346976339.878515</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07433091062981201</v>
+        <v>0.08177625526500272</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0339235914708822</v>
+        <v>0.03181459607983528</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1804,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1859707381.669868</v>
+        <v>1984796076.736674</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1677646836472506</v>
+        <v>0.1548193013777208</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02780264727821724</v>
+        <v>0.03066059790038724</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1839,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1232127194.188401</v>
+        <v>1266247704.277975</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1315914967113991</v>
+        <v>0.1358061346801671</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05445279157602186</v>
+        <v>0.05369359201601284</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1874,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2583007578.116983</v>
+        <v>2856783791.775361</v>
       </c>
       <c r="F41" t="n">
-        <v>0.146005688588155</v>
+        <v>0.1240407259814316</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03415824046476948</v>
+        <v>0.04686536075964718</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,17 +1915,24 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2822708404.959776</v>
+        <v>3275431711.467158</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1218384465117455</v>
+        <v>0.07997994255469135</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0354703196323163</v>
+        <v>0.04011925148557548</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>6</v>
+      </c>
+      <c r="J42" t="n">
+        <v>18</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2033185114.658786</v>
+        <v>2007692259.464487</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1633408730525327</v>
+        <v>0.132786937265981</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02126558825302501</v>
+        <v>0.02562885878284129</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1979,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1961299632.015742</v>
+        <v>1533764280.796017</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08017675212185196</v>
+        <v>0.06745988192235122</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02926682253764789</v>
+        <v>0.03553398346622808</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2014,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1565686449.794399</v>
+        <v>1794429303.76014</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1705955343460133</v>
+        <v>0.1243070096061986</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04638830479882772</v>
+        <v>0.05479627489745112</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,16 +2055,25 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4197418663.415298</v>
+        <v>5691863443.132073</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1352927066022224</v>
+        <v>0.1770949917005609</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05419338607281596</v>
+        <v>0.03779647387102872</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>11</v>
+      </c>
+      <c r="J46" t="n">
+        <v>20</v>
+      </c>
+      <c r="K46" t="n">
+        <v>215.115868789888</v>
       </c>
     </row>
     <row r="47">
@@ -1746,17 +2092,24 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4251335179.931017</v>
+        <v>3656581588.90204</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1647785108382612</v>
+        <v>0.1760012296104959</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05873468769274617</v>
+        <v>0.03785033579289415</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>7</v>
+      </c>
+      <c r="J47" t="n">
+        <v>20</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2121,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4412323648.475298</v>
+        <v>2968403915.010522</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07753942923315769</v>
+        <v>0.09542690329890101</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03139874456892787</v>
+        <v>0.0356991142896968</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>6</v>
+      </c>
+      <c r="J48" t="n">
+        <v>15</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1802,17 +2162,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1391938799.753815</v>
+        <v>1500814212.92813</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1765363806042456</v>
+        <v>0.1436215170862462</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02733753188081494</v>
+        <v>0.03812898437073377</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2191,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2624432908.449631</v>
+        <v>2648243282.60857</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1419732266490357</v>
+        <v>0.1455821638191352</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03698875799577078</v>
+        <v>0.03752163958683092</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>6</v>
+      </c>
+      <c r="J50" t="n">
+        <v>18</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1858,17 +2232,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>985367316.0607095</v>
+        <v>1202151313.114945</v>
       </c>
       <c r="F51" t="n">
-        <v>0.118957736798579</v>
+        <v>0.1419887561419613</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03876782269549627</v>
+        <v>0.03946553324246863</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,17 +2267,24 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4027946282.552104</v>
+        <v>5016347444.086185</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1007595159550941</v>
+        <v>0.09911643386128767</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04278502795425727</v>
+        <v>0.03923279961882315</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>13</v>
+      </c>
+      <c r="J52" t="n">
+        <v>20</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2296,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2444747297.384421</v>
+        <v>2802299859.687983</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1676915725832619</v>
+        <v>0.1931422878500645</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02527244919052943</v>
+        <v>0.02281581911246081</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>3</v>
+      </c>
+      <c r="J53" t="n">
+        <v>17</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2331,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3493068311.92107</v>
+        <v>3292761948.890789</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1181869755155225</v>
+        <v>0.1627572730144538</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04574885403958046</v>
+        <v>0.0511442353954185</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>9</v>
+      </c>
+      <c r="J54" t="n">
+        <v>19</v>
+      </c>
+      <c r="K54" t="n">
+        <v>154.78684120994</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +2374,25 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3085902765.17414</v>
+        <v>3838600545.488706</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1941009050542378</v>
+        <v>0.1407536686463035</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02334547862324463</v>
+        <v>0.02881693274785614</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>9</v>
+      </c>
+      <c r="J55" t="n">
+        <v>19</v>
+      </c>
+      <c r="K55" t="n">
+        <v>184.6580345375619</v>
       </c>
     </row>
     <row r="56">
@@ -1998,17 +2411,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1473203692.733221</v>
+        <v>1637954785.183176</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1614034500130133</v>
+        <v>0.1594947668040449</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04161331599590198</v>
+        <v>0.05082018127344815</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2440,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3340561523.764927</v>
+        <v>3535507939.750333</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1150266919289745</v>
+        <v>0.127918722100552</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02401558926522242</v>
+        <v>0.02393314342132479</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>7</v>
+      </c>
+      <c r="J57" t="n">
+        <v>20</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2475,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1161952334.851837</v>
+        <v>1610326411.67248</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1450205109388398</v>
+        <v>0.1776553174284668</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03124667760953144</v>
+        <v>0.0356811530133577</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2510,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5151200118.603536</v>
+        <v>5120484551.640012</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1169081104386263</v>
+        <v>0.08423131259310036</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03909192580219759</v>
+        <v>0.03840526227071284</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>9</v>
+      </c>
+      <c r="J59" t="n">
+        <v>20</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2545,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3766533810.378048</v>
+        <v>3280909757.845888</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1841481800699914</v>
+        <v>0.1388889263326692</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03153058745867689</v>
+        <v>0.02157857180009459</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>10</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2580,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2935964947.536422</v>
+        <v>2101391894.167268</v>
       </c>
       <c r="F61" t="n">
-        <v>0.168008564703696</v>
+        <v>0.116295618972202</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02341095384034962</v>
+        <v>0.02088819398241941</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2621,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1785186135.004508</v>
+        <v>1952349549.091856</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1246880354135551</v>
+        <v>0.140842626961101</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03121603868094729</v>
+        <v>0.0312594497061683</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2650,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5141862536.244979</v>
+        <v>3972523910.348516</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07368938425194718</v>
+        <v>0.1018239573236449</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03183188941074667</v>
+        <v>0.0456506408008533</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>9</v>
+      </c>
+      <c r="J63" t="n">
+        <v>20</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,22 +2685,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3341857888.209291</v>
+        <v>4757545600.405313</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1246696601193076</v>
+        <v>0.130690499257205</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02257011887060532</v>
+        <v>0.02214300493652531</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>10</v>
+      </c>
+      <c r="J64" t="n">
+        <v>19</v>
+      </c>
+      <c r="K64" t="n">
+        <v>201.162033038672</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2728,25 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5646202011.599394</v>
+        <v>4843273697.053861</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1326023222474164</v>
+        <v>0.1313685033620106</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03028069232731807</v>
+        <v>0.02732846433040548</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>16</v>
+      </c>
+      <c r="J65" t="n">
+        <v>20</v>
+      </c>
+      <c r="K65" t="n">
+        <v>215.471834785277</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2759,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5278959278.632992</v>
+        <v>5303989343.963053</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1318693472131812</v>
+        <v>0.134040727207791</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03235949569153932</v>
+        <v>0.05032140522437598</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>10</v>
+      </c>
+      <c r="J66" t="n">
+        <v>19</v>
+      </c>
+      <c r="K66" t="n">
+        <v>197.6955460184367</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2817441161.518622</v>
+        <v>3129999813.840176</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08021612053890551</v>
+        <v>0.09954475242868596</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03328903834449063</v>
+        <v>0.03894944090040288</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2831,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5789148797.782449</v>
+        <v>5606875086.163892</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1143935587726226</v>
+        <v>0.1066879288173123</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04058468624139108</v>
+        <v>0.0433343986536909</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>10</v>
+      </c>
+      <c r="J68" t="n">
+        <v>19</v>
+      </c>
+      <c r="K68" t="n">
+        <v>202.1236135040736</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1554441407.583644</v>
+        <v>2063713260.166162</v>
       </c>
       <c r="F69" t="n">
-        <v>0.149634194250803</v>
+        <v>0.1467696516373342</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05427612557273855</v>
+        <v>0.03652868977542811</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2903,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2932280530.708765</v>
+        <v>2814524506.666029</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06321490997703404</v>
+        <v>0.09651520297280952</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04827512573846653</v>
+        <v>0.04290616285159311</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>2</v>
+      </c>
+      <c r="J70" t="n">
+        <v>17</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2938,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4802523601.125278</v>
+        <v>4791342579.570013</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1682154154130705</v>
+        <v>0.1451850764602486</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03073608558668562</v>
+        <v>0.02881658271635589</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>16</v>
+      </c>
+      <c r="J71" t="n">
+        <v>20</v>
+      </c>
+      <c r="K71" t="n">
+        <v>216.5196172509624</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1945038666.546786</v>
+        <v>1821549203.531939</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07179477885082167</v>
+        <v>0.06582941274301508</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03275613298370272</v>
+        <v>0.03239479858312511</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3016,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2493908689.851514</v>
+        <v>2924861774.282736</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1087717595977547</v>
+        <v>0.09129376624600115</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04174403638535767</v>
+        <v>0.04473072879522563</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>11</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,16 +3051,25 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3759917790.357516</v>
+        <v>3651350563.36095</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1695007660077873</v>
+        <v>0.1437577423631053</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02403347269104257</v>
+        <v>0.02863157622270453</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>6</v>
+      </c>
+      <c r="J74" t="n">
+        <v>19</v>
+      </c>
+      <c r="K74" t="n">
+        <v>192.7215212120055</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3082,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1550392058.636592</v>
+        <v>1965725136.909232</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1474546535626184</v>
+        <v>0.1073326274174684</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02920248930370312</v>
+        <v>0.02310572719236288</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3117,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4762923142.837017</v>
+        <v>3246638296.593755</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07678247232780823</v>
+        <v>0.09722827691900811</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03113814311060192</v>
+        <v>0.0240313214765089</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>9</v>
+      </c>
+      <c r="J76" t="n">
+        <v>19</v>
+      </c>
+      <c r="K76" t="n">
+        <v>122.0687543352377</v>
       </c>
     </row>
     <row r="77">
@@ -2586,17 +3160,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2002630016.253364</v>
+        <v>1675505906.000464</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1195078993687004</v>
+        <v>0.147889370392304</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0231428433759773</v>
+        <v>0.0219326641842679</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3189,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3583104936.880731</v>
+        <v>4264236089.980455</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1371311064818847</v>
+        <v>0.1266219886746459</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0385431689205916</v>
+        <v>0.0501304739509858</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>8</v>
+      </c>
+      <c r="J78" t="n">
+        <v>20</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1301613408.232188</v>
+        <v>1706971372.754227</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1596912847242438</v>
+        <v>0.1091437384740157</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03059827312088447</v>
+        <v>0.03354625788344785</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3259,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4840497032.514627</v>
+        <v>3887104745.676527</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1020297908712634</v>
+        <v>0.101210887836893</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02653397190357427</v>
+        <v>0.03698588476445965</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>9</v>
+      </c>
+      <c r="J80" t="n">
+        <v>20</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2698,17 +3300,24 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4738654314.764529</v>
+        <v>4100550627.312484</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1255676016735008</v>
+        <v>0.08460325366887991</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02296361455865722</v>
+        <v>0.02119709675308922</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>9</v>
+      </c>
+      <c r="J81" t="n">
+        <v>20</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2726,16 +3335,25 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4664659738.384043</v>
+        <v>3451291212.81424</v>
       </c>
       <c r="F82" t="n">
-        <v>0.191377694658731</v>
+        <v>0.1756362509800264</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01801029918487745</v>
+        <v>0.02207819773268858</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>11</v>
+      </c>
+      <c r="J82" t="n">
+        <v>19</v>
+      </c>
+      <c r="K82" t="n">
+        <v>173.2261779781261</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1642830985.50231</v>
+        <v>1926722216.655443</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1513079786132925</v>
+        <v>0.15391545903673</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03374846025262132</v>
+        <v>0.03102060603905926</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2011078773.923192</v>
+        <v>1670013954.658518</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1170527242453675</v>
+        <v>0.0947013498362078</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05150733660261475</v>
+        <v>0.0407276813231618</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3442,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2977971611.013943</v>
+        <v>2352616826.238235</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1385957796192716</v>
+        <v>0.1489227353587862</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03461663969270836</v>
+        <v>0.03427130253545436</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>4</v>
+      </c>
+      <c r="J85" t="n">
+        <v>17</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3477,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1697599057.799223</v>
+        <v>2272576475.954095</v>
       </c>
       <c r="F86" t="n">
-        <v>0.127524832247381</v>
+        <v>0.1176550060318204</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02480745031124464</v>
+        <v>0.02693088204149725</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1057019871.900545</v>
+        <v>1402149024.53101</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1723790524378161</v>
+        <v>0.1600287681254668</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03430274248410261</v>
+        <v>0.04021613814200226</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3450615971.813177</v>
+        <v>2281378287.347664</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1398287524581678</v>
+        <v>0.1350339550304409</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02490120521165402</v>
+        <v>0.03000972286635505</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>2</v>
+      </c>
+      <c r="J88" t="n">
+        <v>6</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3285222128.419345</v>
+        <v>2556804572.979023</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1593369712607116</v>
+        <v>0.1245324295442525</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0325524237178577</v>
+        <v>0.02792642440239807</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>3</v>
+      </c>
+      <c r="J89" t="n">
+        <v>17</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1317670450.660522</v>
+        <v>1702129173.909986</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1226548857437775</v>
+        <v>0.1322035241171767</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05630135123770975</v>
+        <v>0.04331274683773428</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1556908429.910907</v>
+        <v>1386554000.639763</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1870239891306886</v>
+        <v>0.1381854521900686</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05470322127550212</v>
+        <v>0.04430965872519454</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2546481647.617054</v>
+        <v>2000895187.97515</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08535540416174252</v>
+        <v>0.069268642616323</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04210495644198189</v>
+        <v>0.03682686661946818</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3716,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4247130812.988881</v>
+        <v>4210405060.818838</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09816034952779092</v>
+        <v>0.1134115867872255</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03681277156987059</v>
+        <v>0.03731269583104166</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>8</v>
+      </c>
+      <c r="J93" t="n">
+        <v>19</v>
+      </c>
+      <c r="K93" t="n">
+        <v>198.3228541174635</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1564342367.972048</v>
+        <v>1549193795.741375</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1494926198063239</v>
+        <v>0.1662803671536426</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03988021799141389</v>
+        <v>0.02746933631902534</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3082537422.288338</v>
+        <v>2807392501.242526</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1360327175052249</v>
+        <v>0.1232592041707051</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0453538501930849</v>
+        <v>0.0437120865772444</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1810192183.691068</v>
+        <v>2403635186.888425</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1185654133576651</v>
+        <v>0.1069095919637763</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04533823080811652</v>
+        <v>0.03539681687001776</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,17 +3864,24 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4681254312.951381</v>
+        <v>3656918931.006804</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1143474437208732</v>
+        <v>0.1330383175109103</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0267615066878522</v>
+        <v>0.02270358067572349</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>9</v>
+      </c>
+      <c r="J97" t="n">
+        <v>20</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3174,16 +3899,25 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2594492428.212341</v>
+        <v>2448302028.782173</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1188720681608545</v>
+        <v>0.08055060686087048</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02260763781228395</v>
+        <v>0.02723682735779795</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>5</v>
+      </c>
+      <c r="J98" t="n">
+        <v>19</v>
+      </c>
+      <c r="K98" t="n">
+        <v>75.71129693855256</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2624116332.390708</v>
+        <v>2594814814.293412</v>
       </c>
       <c r="F99" t="n">
-        <v>0.105853175421634</v>
+        <v>0.1396464275309631</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03488573542795154</v>
+        <v>0.02500638073379053</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4703531427.016954</v>
+        <v>4703813207.027176</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1332811454789997</v>
+        <v>0.1390700877020372</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02540924000418425</v>
+        <v>0.02681830707426191</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>9</v>
+      </c>
+      <c r="J100" t="n">
+        <v>20</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3262976623.785328</v>
+        <v>2888337913.575163</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1929877651749368</v>
+        <v>0.165837561645663</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03901489012350209</v>
+        <v>0.0436047673718</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
